--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF267A9-AE92-42CA-A6D3-752E2292777A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64940E4F-4669-4802-808B-9772133D1961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,10 +181,10 @@
     <t>Andrea Colombo</t>
   </si>
   <si>
+    <t>Daniele Orsato</t>
+  </si>
+  <si>
     <t>Davide Massa</t>
-  </si>
-  <si>
-    <t>Daniele Orsato</t>
   </si>
   <si>
     <t>Fabio Maresca</t>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
       <c r="E2" s="1">
         <v>43.235294117647058</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10150</v>
       </c>
       <c r="G2" s="1">
@@ -747,7 +747,7 @@
       <c r="E3" s="1">
         <v>45.294117647058826</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8900</v>
       </c>
       <c r="G3" s="1">
@@ -785,7 +785,7 @@
       <c r="E4" s="1">
         <v>65</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20600</v>
       </c>
       <c r="G4" s="1">
@@ -818,31 +818,31 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>810</v>
+        <v>885</v>
       </c>
       <c r="E5" s="1">
-        <v>50.625</v>
-      </c>
-      <c r="F5">
-        <v>11200</v>
+        <v>55.3125</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10550</v>
       </c>
       <c r="G5" s="1">
-        <v>700</v>
+        <v>659.375</v>
       </c>
       <c r="H5" s="1">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="I5" s="1">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="J5" s="1">
-        <v>43.5</v>
+        <v>40.5625</v>
       </c>
       <c r="K5" s="1">
-        <v>46.5</v>
+        <v>40.375</v>
       </c>
       <c r="L5" s="1">
-        <v>30.1875</v>
+        <v>28.8125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -853,34 +853,34 @@
         <v>54</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>865</v>
+        <v>810</v>
       </c>
       <c r="E6" s="1">
-        <v>57.666666666666664</v>
-      </c>
-      <c r="F6">
-        <v>10550</v>
+        <v>50.625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11200</v>
       </c>
       <c r="G6" s="1">
-        <v>703.33333333333337</v>
+        <v>700</v>
       </c>
       <c r="H6" s="1">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="J6" s="1">
-        <v>43.266666666666666</v>
+        <v>43.5</v>
       </c>
       <c r="K6" s="1">
-        <v>38.06666666666667</v>
+        <v>46.5</v>
       </c>
       <c r="L6" s="1">
-        <v>30.733333333333334</v>
+        <v>30.1875</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       <c r="E7" s="1">
         <v>59</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>11300</v>
       </c>
       <c r="G7" s="1">
@@ -937,7 +937,7 @@
       <c r="E8" s="1">
         <v>47</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>10250</v>
       </c>
       <c r="G8" s="1">
@@ -975,7 +975,7 @@
       <c r="E9" s="1">
         <v>45.333333333333336</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6750</v>
       </c>
       <c r="G9" s="1">
@@ -1013,7 +1013,7 @@
       <c r="E10" s="1">
         <v>44.285714285714285</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>5850</v>
       </c>
       <c r="G10" s="1">
@@ -1051,7 +1051,7 @@
       <c r="E11" s="1">
         <v>41.428571428571431</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>5100</v>
       </c>
       <c r="G11" s="1">
@@ -1089,7 +1089,7 @@
       <c r="E12" s="1">
         <v>49.642857142857146</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>8750</v>
       </c>
       <c r="G12" s="1">
@@ -1127,7 +1127,7 @@
       <c r="E13" s="1">
         <v>34.230769230769234</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>3500</v>
       </c>
       <c r="G13" s="1">
@@ -1165,7 +1165,7 @@
       <c r="E14" s="1">
         <v>38.46153846153846</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3450</v>
       </c>
       <c r="G14" s="1">
@@ -1203,7 +1203,7 @@
       <c r="E15" s="1">
         <v>54.583333333333336</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>8800</v>
       </c>
       <c r="G15" s="1">
@@ -1241,7 +1241,7 @@
       <c r="E16" s="1">
         <v>44.166666666666664</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>7525</v>
       </c>
       <c r="G16" s="1">
@@ -1279,7 +1279,7 @@
       <c r="E17" s="1">
         <v>50</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>7150</v>
       </c>
       <c r="G17" s="1">
@@ -1317,7 +1317,7 @@
       <c r="E18" s="1">
         <v>47.727272727272727</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>5350</v>
       </c>
       <c r="G18" s="1">
@@ -1355,7 +1355,7 @@
       <c r="E19" s="1">
         <v>50.454545454545453</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>11600</v>
       </c>
       <c r="G19" s="1">
@@ -1393,7 +1393,7 @@
       <c r="E20" s="1">
         <v>44.545454545454547</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>3950</v>
       </c>
       <c r="G20" s="1">
@@ -1431,7 +1431,7 @@
       <c r="E21" s="1">
         <v>34.090909090909093</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>4300</v>
       </c>
       <c r="G21" s="1">
@@ -1469,7 +1469,7 @@
       <c r="E22" s="1">
         <v>46.81818181818182</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>5850</v>
       </c>
       <c r="G22" s="1">
@@ -1507,7 +1507,7 @@
       <c r="E23" s="1">
         <v>42.777777777777779</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>5150</v>
       </c>
       <c r="G23" s="1">
@@ -1545,7 +1545,7 @@
       <c r="E24" s="1">
         <v>36.666666666666664</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>4100</v>
       </c>
       <c r="G24" s="1">
@@ -1583,7 +1583,7 @@
       <c r="E25" s="1">
         <v>35</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>3000</v>
       </c>
       <c r="G25" s="1">
@@ -1621,7 +1621,7 @@
       <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>4750</v>
       </c>
       <c r="G26" s="1">
@@ -1659,7 +1659,7 @@
       <c r="E27" s="1">
         <v>60</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>7425</v>
       </c>
       <c r="G27" s="1">
@@ -1697,7 +1697,7 @@
       <c r="E28" s="1">
         <v>40.625</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>3050</v>
       </c>
       <c r="G28" s="1">
@@ -1735,7 +1735,7 @@
       <c r="E29" s="1">
         <v>67.142857142857139</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>6550</v>
       </c>
       <c r="G29" s="1">
@@ -1773,7 +1773,7 @@
       <c r="E30" s="1">
         <v>56.428571428571431</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>6500</v>
       </c>
       <c r="G30" s="1">
@@ -1811,7 +1811,7 @@
       <c r="E31" s="1">
         <v>26.666666666666668</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>1400</v>
       </c>
       <c r="G31" s="1">
@@ -1849,7 +1849,7 @@
       <c r="E32" s="1">
         <v>35</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>1250</v>
       </c>
       <c r="G32" s="1">
@@ -1887,7 +1887,7 @@
       <c r="E33" s="1">
         <v>45</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>2150</v>
       </c>
       <c r="G33" s="1">
@@ -1925,7 +1925,7 @@
       <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>1800</v>
       </c>
       <c r="G34" s="1">
@@ -1963,7 +1963,7 @@
       <c r="E35" s="1">
         <v>43.333333333333336</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1800</v>
       </c>
       <c r="G35" s="1">
@@ -2001,7 +2001,7 @@
       <c r="E36" s="1">
         <v>20</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>200</v>
       </c>
       <c r="G36" s="1">
@@ -2039,7 +2039,7 @@
       <c r="E37" s="1">
         <v>30</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>400</v>
       </c>
       <c r="G37" s="1">
@@ -2077,7 +2077,7 @@
       <c r="E38" s="1">
         <v>20</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>100</v>
       </c>
       <c r="G38" s="1">
@@ -2115,7 +2115,7 @@
       <c r="E39" s="1">
         <v>30</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>200</v>
       </c>
       <c r="G39" s="1">
@@ -2153,7 +2153,7 @@
       <c r="E40" s="1">
         <v>105</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>2750</v>
       </c>
       <c r="G40" s="1">
@@ -2174,11 +2174,6 @@
       <c r="L40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64940E4F-4669-4802-808B-9772133D1961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEFFF31-2BB6-492F-A37F-1613D43D1A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,18 +638,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
@@ -700,10 +700,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>735</v>
       </c>
       <c r="E2" s="1">
@@ -728,7 +728,7 @@
         <v>39.823529411764703</v>
       </c>
       <c r="L2" s="1">
-        <v>18.764705882352942</v>
+        <v>34.470588235294116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>17</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>770</v>
       </c>
       <c r="E3" s="1">
@@ -766,7 +766,7 @@
         <v>47.588235294117645</v>
       </c>
       <c r="L3" s="1">
-        <v>36.941176470588232</v>
+        <v>43.529411764705884</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -776,10 +776,10 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1040</v>
       </c>
       <c r="E4" s="1">
@@ -804,7 +804,7 @@
         <v>37.125</v>
       </c>
       <c r="L4" s="1">
-        <v>26.1875</v>
+        <v>27.8125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -814,10 +814,10 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>885</v>
       </c>
       <c r="E5" s="1">
@@ -842,7 +842,7 @@
         <v>40.375</v>
       </c>
       <c r="L5" s="1">
-        <v>28.8125</v>
+        <v>35.3125</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>810</v>
       </c>
       <c r="E6" s="1">
@@ -890,10 +890,10 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>885</v>
       </c>
       <c r="E7" s="1">
@@ -928,10 +928,10 @@
       <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>705</v>
       </c>
       <c r="E8" s="1">
@@ -956,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="1">
-        <v>25</v>
+        <v>31.266666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
       <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>680</v>
       </c>
       <c r="E9" s="1">
@@ -994,7 +994,7 @@
         <v>29.533333333333335</v>
       </c>
       <c r="L9" s="1">
-        <v>17.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,10 +1004,10 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>620</v>
       </c>
       <c r="E10" s="1">
@@ -1032,7 +1032,7 @@
         <v>42.714285714285715</v>
       </c>
       <c r="L10" s="1">
-        <v>25.428571428571427</v>
+        <v>28.428571428571427</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
       <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>580</v>
       </c>
       <c r="E11" s="1">
@@ -1070,7 +1070,7 @@
         <v>50.928571428571431</v>
       </c>
       <c r="L11" s="1">
-        <v>25.928571428571427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,10 +1080,10 @@
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>695</v>
       </c>
       <c r="E12" s="1">
@@ -1118,10 +1118,10 @@
       <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>445</v>
       </c>
       <c r="E13" s="1">
@@ -1146,7 +1146,7 @@
         <v>38.692307692307693</v>
       </c>
       <c r="L13" s="1">
-        <v>26.307692307692307</v>
+        <v>34.153846153846153</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>500</v>
       </c>
       <c r="E14" s="1">
@@ -1184,7 +1184,7 @@
         <v>51.153846153846153</v>
       </c>
       <c r="L14" s="1">
-        <v>23.846153846153847</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1194,10 +1194,10 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>655</v>
       </c>
       <c r="E15" s="1">
@@ -1222,7 +1222,7 @@
         <v>35.416666666666664</v>
       </c>
       <c r="L15" s="1">
-        <v>26.416666666666668</v>
+        <v>30.083333333333332</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1232,10 +1232,10 @@
       <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>530</v>
       </c>
       <c r="E16" s="1">
@@ -1260,7 +1260,7 @@
         <v>41.5</v>
       </c>
       <c r="L16" s="1">
-        <v>28.416666666666668</v>
+        <v>37.833333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1270,10 +1270,10 @@
       <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>600</v>
       </c>
       <c r="E17" s="1">
@@ -1298,7 +1298,7 @@
         <v>35.416666666666664</v>
       </c>
       <c r="L17" s="1">
-        <v>24.416666666666668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1308,10 +1308,10 @@
       <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>11</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>525</v>
       </c>
       <c r="E18" s="1">
@@ -1336,7 +1336,7 @@
         <v>41.090909090909093</v>
       </c>
       <c r="L18" s="1">
-        <v>23</v>
+        <v>29.272727272727273</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
       <c r="B19" t="s">
         <v>67</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>11</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>555</v>
       </c>
       <c r="E19" s="1">
@@ -1374,7 +1374,7 @@
         <v>37.18181818181818</v>
       </c>
       <c r="L19" s="1">
-        <v>29.636363636363637</v>
+        <v>30.818181818181817</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1384,10 +1384,10 @@
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>490</v>
       </c>
       <c r="E20" s="1">
@@ -1412,7 +1412,7 @@
         <v>43.363636363636367</v>
       </c>
       <c r="L20" s="1">
-        <v>31.454545454545453</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
       <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>375</v>
       </c>
       <c r="E21" s="1">
@@ -1460,10 +1460,10 @@
       <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>515</v>
       </c>
       <c r="E22" s="1">
@@ -1488,7 +1488,7 @@
         <v>43.636363636363633</v>
       </c>
       <c r="L22" s="1">
-        <v>27.181818181818183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,10 +1498,10 @@
       <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>385</v>
       </c>
       <c r="E23" s="1">
@@ -1526,7 +1526,7 @@
         <v>39.666666666666664</v>
       </c>
       <c r="L23" s="1">
-        <v>28.444444444444443</v>
+        <v>32.777777777777779</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1536,10 +1536,10 @@
       <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>330</v>
       </c>
       <c r="E24" s="1">
@@ -1564,7 +1564,7 @@
         <v>55.333333333333336</v>
       </c>
       <c r="L24" s="1">
-        <v>32.444444444444443</v>
+        <v>40.222222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1574,10 +1574,10 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>315</v>
       </c>
       <c r="E25" s="1">
@@ -1602,7 +1602,7 @@
         <v>44.555555555555557</v>
       </c>
       <c r="L25" s="1">
-        <v>21.333333333333332</v>
+        <v>44.222222222222221</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
       <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>400</v>
       </c>
       <c r="E26" s="1">
@@ -1650,10 +1650,10 @@
       <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>480</v>
       </c>
       <c r="E27" s="1">
@@ -1678,7 +1678,7 @@
         <v>58.25</v>
       </c>
       <c r="L27" s="1">
-        <v>27.75</v>
+        <v>38.75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1688,10 +1688,10 @@
       <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>8</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>325</v>
       </c>
       <c r="E28" s="1">
@@ -1716,7 +1716,7 @@
         <v>37.375</v>
       </c>
       <c r="L28" s="1">
-        <v>19</v>
+        <v>32.375</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1726,10 +1726,10 @@
       <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>470</v>
       </c>
       <c r="E29" s="1">
@@ -1764,10 +1764,10 @@
       <c r="B30" t="s">
         <v>78</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>395</v>
       </c>
       <c r="E30" s="1">
@@ -1802,10 +1802,10 @@
       <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>160</v>
       </c>
       <c r="E31" s="1">
@@ -1830,7 +1830,7 @@
         <v>32.5</v>
       </c>
       <c r="L31" s="1">
-        <v>16.833333333333332</v>
+        <v>22.833333333333332</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
       <c r="B32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>175</v>
       </c>
       <c r="E32" s="1">
@@ -1878,10 +1878,10 @@
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>225</v>
       </c>
       <c r="E33" s="1">
@@ -1906,7 +1906,7 @@
         <v>29</v>
       </c>
       <c r="L33" s="1">
-        <v>20.399999999999999</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1916,10 +1916,10 @@
       <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>150</v>
       </c>
       <c r="E34" s="1">
@@ -1954,10 +1954,10 @@
       <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>130</v>
       </c>
       <c r="E35" s="1">
@@ -1982,7 +1982,7 @@
         <v>17.666666666666668</v>
       </c>
       <c r="L35" s="1">
-        <v>8</v>
+        <v>22.666666666666668</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1992,10 +1992,10 @@
       <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>40</v>
       </c>
       <c r="E36" s="1">
@@ -2020,7 +2020,7 @@
         <v>57</v>
       </c>
       <c r="L36" s="1">
-        <v>31.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2030,10 +2030,10 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>60</v>
       </c>
       <c r="E37" s="1">
@@ -2068,10 +2068,10 @@
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>20</v>
       </c>
       <c r="E38" s="1">
@@ -2106,10 +2106,10 @@
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>30</v>
       </c>
       <c r="E39" s="1">
@@ -2144,10 +2144,10 @@
       <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>105</v>
       </c>
       <c r="E40" s="1">

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Referee</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t/>
@@ -286,7 +289,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -326,41 +329,41 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="B3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" t="n">
-        <v>100.0</v>
+        <v>435.0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.0</v>
+        <v>43.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1100.0</v>
+        <v>5300.0</v>
       </c>
       <c r="G3" t="n">
-        <v>550.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21.5</v>
+        <v>530.0</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>1.7241379310344827</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="4">
@@ -374,16 +377,16 @@
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.0</v>
+        <v>100.0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.0</v>
+        <v>50.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2025.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1012.5</v>
+        <v>550.0</v>
       </c>
       <c r="H4" t="n">
         <v>1200.0</v>
@@ -392,16 +395,16 @@
         <v>600.0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.5</v>
+        <v>53.0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.0</v>
+        <v>21.5</v>
       </c>
       <c r="L4" t="n">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.8260869565217392</v>
+        <v>1.7241379310344827</v>
       </c>
     </row>
     <row r="5">
@@ -415,34 +418,34 @@
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.5</v>
+        <v>65.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1600.0</v>
+        <v>2025.0</v>
       </c>
       <c r="G5" t="n">
-        <v>800.0</v>
+        <v>1012.5</v>
       </c>
       <c r="H5" t="n">
-        <v>800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I5" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.0</v>
+        <v>16.5</v>
       </c>
       <c r="K5" t="n">
-        <v>36.0</v>
+        <v>22.0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.0</v>
+        <v>16.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.6595744680851063</v>
+        <v>2.8260869565217392</v>
       </c>
     </row>
     <row r="6">
@@ -456,34 +459,34 @@
         <v>2.0</v>
       </c>
       <c r="D6" t="n">
-        <v>70.0</v>
+        <v>125.0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.0</v>
+        <v>62.5</v>
       </c>
       <c r="F6" t="n">
-        <v>600.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G6" t="n">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="H6" t="n">
-        <v>500.0</v>
+        <v>800.0</v>
       </c>
       <c r="I6" t="n">
-        <v>250.0</v>
+        <v>400.0</v>
       </c>
       <c r="J6" t="n">
-        <v>35.5</v>
+        <v>63.0</v>
       </c>
       <c r="K6" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="L6" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.6595744680851063</v>
       </c>
     </row>
     <row r="7">
@@ -497,34 +500,34 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>95.0</v>
+        <v>70.0</v>
       </c>
       <c r="E7" t="n">
-        <v>47.5</v>
+        <v>35.0</v>
       </c>
       <c r="F7" t="n">
-        <v>550.0</v>
+        <v>600.0</v>
       </c>
       <c r="G7" t="n">
-        <v>275.0</v>
+        <v>300.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1050.0</v>
+        <v>500.0</v>
       </c>
       <c r="I7" t="n">
-        <v>525.0</v>
+        <v>250.0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.0</v>
+        <v>35.5</v>
       </c>
       <c r="K7" t="n">
-        <v>74.0</v>
+        <v>38.0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.5</v>
+        <v>38.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.8627450980392157</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -538,34 +541,34 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>130.0</v>
+        <v>95.0</v>
       </c>
       <c r="E8" t="n">
-        <v>65.0</v>
+        <v>47.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2000.0</v>
+        <v>550.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1000.0</v>
+        <v>275.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1200.0</v>
+        <v>1050.0</v>
       </c>
       <c r="I8" t="n">
-        <v>600.0</v>
+        <v>525.0</v>
       </c>
       <c r="J8" t="n">
-        <v>39.5</v>
+        <v>9.0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.5</v>
+        <v>74.0</v>
       </c>
       <c r="L8" t="n">
-        <v>30.0</v>
+        <v>36.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.7083333333333335</v>
+        <v>1.8627450980392157</v>
       </c>
     </row>
     <row r="9">
@@ -579,34 +582,34 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
       <c r="E9" t="n">
-        <v>55.0</v>
+        <v>65.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G9" t="n">
-        <v>700.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1400.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I9" t="n">
-        <v>700.0</v>
+        <v>600.0</v>
       </c>
       <c r="J9" t="n">
-        <v>28.5</v>
+        <v>39.5</v>
       </c>
       <c r="K9" t="n">
-        <v>35.5</v>
+        <v>37.5</v>
       </c>
       <c r="L9" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.9298245614035088</v>
+        <v>2.7083333333333335</v>
       </c>
     </row>
     <row r="10">
@@ -617,37 +620,37 @@
         <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>50.0</v>
+        <v>110.0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="F10" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="G10" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="H10" t="n">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I10" t="n">
-        <v>600.0</v>
+        <v>700.0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.0</v>
+        <v>28.5</v>
       </c>
       <c r="K10" t="n">
-        <v>17.0</v>
+        <v>35.5</v>
       </c>
       <c r="L10" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.6129032258064515</v>
+        <v>1.9298245614035088</v>
       </c>
     </row>
     <row r="11">
@@ -661,34 +664,34 @@
         <v>1.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.0</v>
+        <v>27.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="L11" t="n">
-        <v>68.0</v>
+        <v>17.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.2</v>
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="12">
@@ -708,10 +711,10 @@
         <v>30.0</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -720,16 +723,16 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
       <c r="K12" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" t="n">
-        <v>62.0</v>
+        <v>68.0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13">
@@ -743,34 +746,34 @@
         <v>1.0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E13" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F13" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="G13" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="H13" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.0</v>
+        <v>74.0</v>
       </c>
       <c r="K13" t="n">
-        <v>3.0</v>
+        <v>62.0</v>
       </c>
       <c r="L13" t="n">
-        <v>3.0</v>
+        <v>62.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.5384615384615385</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="14">
@@ -784,34 +787,34 @@
         <v>1.0</v>
       </c>
       <c r="D14" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="E14" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1050.0</v>
+        <v>400.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1050.0</v>
+        <v>400.0</v>
       </c>
       <c r="H14" t="n">
-        <v>1050.0</v>
+        <v>300.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1050.0</v>
+        <v>300.0</v>
       </c>
       <c r="J14" t="n">
-        <v>65.0</v>
+        <v>31.0</v>
       </c>
       <c r="K14" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="L14" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.8260869565217392</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="15">
@@ -825,34 +828,34 @@
         <v>1.0</v>
       </c>
       <c r="D15" t="n">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="F15" t="n">
-        <v>300.0</v>
+        <v>1050.0</v>
       </c>
       <c r="G15" t="n">
-        <v>300.0</v>
+        <v>1050.0</v>
       </c>
       <c r="H15" t="n">
-        <v>300.0</v>
+        <v>1050.0</v>
       </c>
       <c r="I15" t="n">
-        <v>300.0</v>
+        <v>1050.0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="K15" t="n">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="L15" t="n">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9047619047619047</v>
+        <v>2.8260869565217392</v>
       </c>
     </row>
     <row r="16">
@@ -866,34 +869,34 @@
         <v>1.0</v>
       </c>
       <c r="D16" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="E16" t="n">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1200.0</v>
+        <v>300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1200.0</v>
+        <v>300.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="L16" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.3333333333333335</v>
+        <v>1.9047619047619047</v>
       </c>
     </row>
     <row r="17">
@@ -907,34 +910,34 @@
         <v>1.0</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="F17" t="n">
-        <v>200.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G17" t="n">
-        <v>200.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H17" t="n">
-        <v>200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="K17" t="n">
-        <v>72.0</v>
+        <v>20.0</v>
       </c>
       <c r="L17" t="n">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0344827586206897</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="18">
@@ -948,34 +951,34 @@
         <v>1.0</v>
       </c>
       <c r="D18" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="E18" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
       <c r="L18" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.43478260869565216</v>
+        <v>1.0344827586206897</v>
       </c>
     </row>
     <row r="19">
@@ -989,34 +992,34 @@
         <v>1.0</v>
       </c>
       <c r="D19" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>75.0</v>
+        <v>33.0</v>
       </c>
       <c r="K19" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="20">
@@ -1048,16 +1051,16 @@
         <v>200.0</v>
       </c>
       <c r="J20" t="n">
-        <v>81.0</v>
+        <v>75.0</v>
       </c>
       <c r="K20" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
       <c r="L20" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="21">
@@ -1071,34 +1074,34 @@
         <v>1.0</v>
       </c>
       <c r="D21" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="F21" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="G21" t="n">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="H21" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="I21" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J21" t="n">
-        <v>27.0</v>
+        <v>81.0</v>
       </c>
       <c r="K21" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="L21" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.7391304347826086</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="22">
@@ -1112,10 +1115,10 @@
         <v>1.0</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="E22" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="F22" t="n">
         <v>400.0</v>
@@ -1124,22 +1127,22 @@
         <v>400.0</v>
       </c>
       <c r="H22" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="I22" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="K22" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="L22" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.9411764705882355</v>
+        <v>1.7391304347826086</v>
       </c>
     </row>
     <row r="23">
@@ -1153,34 +1156,34 @@
         <v>1.0</v>
       </c>
       <c r="D23" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="E23" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1350.0</v>
+        <v>400.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1350.0</v>
+        <v>400.0</v>
       </c>
       <c r="H23" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="I23" t="n">
-        <v>300.0</v>
+        <v>600.0</v>
       </c>
       <c r="J23" t="n">
-        <v>62.0</v>
+        <v>18.0</v>
       </c>
       <c r="K23" t="n">
         <v>38.0</v>
       </c>
       <c r="L23" t="n">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.8846153846153846</v>
+        <v>2.9411764705882355</v>
       </c>
     </row>
     <row r="24">
@@ -1194,34 +1197,34 @@
         <v>1.0</v>
       </c>
       <c r="D24" t="n">
-        <v>30.0</v>
+        <v>75.0</v>
       </c>
       <c r="E24" t="n">
-        <v>30.0</v>
+        <v>75.0</v>
       </c>
       <c r="F24" t="n">
-        <v>200.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G24" t="n">
-        <v>200.0</v>
+        <v>1350.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.0</v>
+        <v>62.0</v>
       </c>
       <c r="K24" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="L24" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0</v>
+        <v>2.8846153846153846</v>
       </c>
     </row>
     <row r="25">
@@ -1235,33 +1238,74 @@
         <v>1.0</v>
       </c>
       <c r="D25" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
         <v>65.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>65.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>550.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>550.0</v>
       </c>
-      <c r="H25" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H26" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J26" t="n">
         <v>38.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>28.0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>28.0</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>2.7083333333333335</v>
       </c>
     </row>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Referee</t>
   </si>
@@ -125,7 +125,19 @@
     <t>25</t>
   </si>
   <si>
-    <t/>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>Andrea Colombo</t>
@@ -134,64 +146,82 @@
     <t>Marco Guida</t>
   </si>
   <si>
+    <t>Rosario Abisso</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
+  </si>
+  <si>
+    <t>Davide Massa</t>
+  </si>
+  <si>
+    <t>Juan Luca Sacchi</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Matteo Marcenaro</t>
+  </si>
+  <si>
+    <t>Antonio Giua</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Ermanno Feliciani</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
+  </si>
+  <si>
+    <t>Giovanni Ayroldi</t>
+  </si>
+  <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
     <t>Paride Tremolada</t>
   </si>
   <si>
     <t>Matteo Marchetti</t>
   </si>
   <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Matteo Marcenaro</t>
-  </si>
-  <si>
-    <t>Davide Massa</t>
-  </si>
-  <si>
-    <t>Juan Luca Sacchi</t>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Francesco Fourneau</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Gianluca Aureliano</t>
+  </si>
+  <si>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
+  </si>
+  <si>
+    <t>Federico La Penna</t>
+  </si>
+  <si>
+    <t>Federico Dionisi</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
   </si>
   <si>
     <t>Alessandro Prontera</t>
   </si>
   <si>
-    <t>Marco Di Bello</t>
-  </si>
-  <si>
-    <t>Ermanno Feliciani</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Antonio Giua</t>
-  </si>
-  <si>
-    <t>Giovanni Ayroldi</t>
-  </si>
-  <si>
     <t>Marco Piccinini</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>Federico La Penna</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
-  </si>
-  <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>Rosario Abisso</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
   </si>
   <si>
     <t>Davide Di Marco</t>
@@ -288,8 +318,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C2" t="n">
         <v>20.0</v>
@@ -329,41 +359,41 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
-        <v>435.0</v>
+        <v>130.0</v>
       </c>
       <c r="E3" t="n">
-        <v>43.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F3" t="n">
-        <v>5300.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G3" t="n">
-        <v>530.0</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="e">
-        <v>#N/A</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>466.6666666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>23.333333333333332</v>
       </c>
       <c r="M3" t="n">
-        <v>1.875</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="4">
@@ -371,40 +401,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.0</v>
+        <v>160.0</v>
       </c>
       <c r="E4" t="n">
-        <v>50.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F4" t="n">
-        <v>1100.0</v>
+        <v>2025.0</v>
       </c>
       <c r="G4" t="n">
-        <v>550.0</v>
+        <v>675.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I4" t="n">
-        <v>600.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>53.0</v>
+        <v>18.0</v>
       </c>
       <c r="K4" t="n">
-        <v>21.5</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>21.5</v>
+        <v>18.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7241379310344827</v>
+        <v>2.5396825396825395</v>
       </c>
     </row>
     <row r="5">
@@ -412,40 +442,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>130.0</v>
+        <v>145.0</v>
       </c>
       <c r="E5" t="n">
-        <v>65.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F5" t="n">
-        <v>2025.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1012.5</v>
+        <v>650.0</v>
       </c>
       <c r="H5" t="n">
-        <v>1200.0</v>
+        <v>900.0</v>
       </c>
       <c r="I5" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.5</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>22.0</v>
+        <v>38.0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.5</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="M5" t="n">
-        <v>2.8260869565217392</v>
+        <v>1.9594594594594594</v>
       </c>
     </row>
     <row r="6">
@@ -453,40 +483,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="n">
-        <v>125.0</v>
+        <v>105.0</v>
       </c>
       <c r="E6" t="n">
-        <v>62.5</v>
+        <v>35.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1600.0</v>
+        <v>850.0</v>
       </c>
       <c r="G6" t="n">
-        <v>800.0</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>800.0</v>
+        <v>750.0</v>
       </c>
       <c r="I6" t="n">
-        <v>400.0</v>
+        <v>250.0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.0</v>
+        <v>56.0</v>
       </c>
       <c r="K6" t="n">
-        <v>36.0</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="L6" t="n">
-        <v>27.0</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="M6" t="n">
-        <v>2.6595744680851063</v>
+        <v>1.9444444444444444</v>
       </c>
     </row>
     <row r="7">
@@ -494,40 +524,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
       <c r="E7" t="n">
-        <v>35.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F7" t="n">
-        <v>600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G7" t="n">
-        <v>300.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>500.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I7" t="n">
-        <v>250.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>35.5</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="K7" t="n">
-        <v>38.0</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="L7" t="n">
-        <v>38.0</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="M7" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.951219512195122</v>
       </c>
     </row>
     <row r="8">
@@ -535,40 +565,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.0</v>
+        <v>145.0</v>
       </c>
       <c r="E8" t="n">
-        <v>47.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F8" t="n">
-        <v>550.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G8" t="n">
-        <v>275.0</v>
+        <v>800.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1050.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I8" t="n">
-        <v>525.0</v>
+        <v>783.3333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>9.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>74.0</v>
+        <v>37.0</v>
       </c>
       <c r="L8" t="n">
-        <v>36.5</v>
+        <v>30.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8627450980392157</v>
+        <v>1.9333333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -576,40 +606,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="n">
-        <v>130.0</v>
+        <v>190.0</v>
       </c>
       <c r="E9" t="n">
-        <v>65.0</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="F9" t="n">
-        <v>2000.0</v>
+        <v>2050.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1000.0</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1200.0</v>
+        <v>1550.0</v>
       </c>
       <c r="I9" t="n">
-        <v>600.0</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="J9" t="n">
-        <v>39.5</v>
+        <v>17.0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.5</v>
+        <v>78.66666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>30.0</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="M9" t="n">
-        <v>2.7083333333333335</v>
+        <v>2.5675675675675675</v>
       </c>
     </row>
     <row r="10">
@@ -617,40 +647,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0</v>
+        <v>185.0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.0</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="F10" t="n">
-        <v>1400.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G10" t="n">
-        <v>700.0</v>
+        <v>816.6666666666666</v>
       </c>
       <c r="H10" t="n">
-        <v>1400.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I10" t="n">
-        <v>700.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J10" t="n">
-        <v>28.5</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="K10" t="n">
-        <v>35.5</v>
+        <v>44.333333333333336</v>
       </c>
       <c r="L10" t="n">
-        <v>19.0</v>
+        <v>32.333333333333336</v>
       </c>
       <c r="M10" t="n">
-        <v>1.9298245614035088</v>
+        <v>2.9365079365079363</v>
       </c>
     </row>
     <row r="11">
@@ -658,40 +688,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.0</v>
+        <v>67.5</v>
       </c>
       <c r="F11" t="n">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G11" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H11" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="I11" t="n">
-        <v>600.0</v>
+        <v>150.0</v>
       </c>
       <c r="J11" t="n">
-        <v>27.0</v>
+        <v>60.5</v>
       </c>
       <c r="K11" t="n">
-        <v>17.0</v>
+        <v>46.5</v>
       </c>
       <c r="L11" t="n">
-        <v>17.0</v>
+        <v>46.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6129032258064515</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -699,22 +729,22 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0</v>
+        <v>32.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>450.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>225.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -723,16 +753,16 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.0</v>
+        <v>79.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="L12" t="n">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13">
@@ -740,40 +770,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="E13" t="n">
         <v>30.0</v>
       </c>
       <c r="F13" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="G13" t="n">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.0</v>
+        <v>45.0</v>
       </c>
       <c r="K13" t="n">
-        <v>62.0</v>
+        <v>31.0</v>
       </c>
       <c r="L13" t="n">
-        <v>62.0</v>
+        <v>31.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.4285714285714286</v>
+        <v>1.3953488372093024</v>
       </c>
     </row>
     <row r="14">
@@ -781,40 +811,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
       <c r="F14" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.0</v>
+        <v>48.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.0</v>
+        <v>48.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.5384615384615385</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="15">
@@ -822,40 +852,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15" t="n">
-        <v>65.0</v>
+        <v>140.0</v>
       </c>
       <c r="E15" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1050.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1050.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1050.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1050.0</v>
+        <v>1250.0</v>
       </c>
       <c r="J15" t="n">
-        <v>65.0</v>
+        <v>45.0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.0</v>
+        <v>24.5</v>
       </c>
       <c r="L15" t="n">
-        <v>24.0</v>
+        <v>24.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.8260869565217392</v>
+        <v>2.7450980392156863</v>
       </c>
     </row>
     <row r="16">
@@ -863,40 +893,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.0</v>
+        <v>75.0</v>
       </c>
       <c r="E16" t="n">
-        <v>40.0</v>
+        <v>37.5</v>
       </c>
       <c r="F16" t="n">
-        <v>300.0</v>
+        <v>1350.0</v>
       </c>
       <c r="G16" t="n">
-        <v>300.0</v>
+        <v>675.0</v>
       </c>
       <c r="H16" t="n">
-        <v>300.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I16" t="n">
-        <v>300.0</v>
+        <v>700.0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.0</v>
+        <v>24.5</v>
       </c>
       <c r="K16" t="n">
-        <v>45.0</v>
+        <v>21.5</v>
       </c>
       <c r="L16" t="n">
-        <v>45.0</v>
+        <v>21.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.9047619047619047</v>
+        <v>1.829268292682927</v>
       </c>
     </row>
     <row r="17">
@@ -904,40 +934,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17" t="n">
-        <v>80.0</v>
+        <v>125.0</v>
       </c>
       <c r="E17" t="n">
-        <v>80.0</v>
+        <v>62.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1600.0</v>
+        <v>800.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1600.0</v>
+        <v>400.0</v>
       </c>
       <c r="J17" t="n">
-        <v>40.0</v>
+        <v>63.0</v>
       </c>
       <c r="K17" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="L17" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.3333333333333335</v>
+        <v>2.6595744680851063</v>
       </c>
     </row>
     <row r="18">
@@ -945,40 +975,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="E18" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="F18" t="n">
-        <v>200.0</v>
+        <v>600.0</v>
       </c>
       <c r="G18" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="H18" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="I18" t="n">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="J18" t="n">
-        <v>45.0</v>
+        <v>35.5</v>
       </c>
       <c r="K18" t="n">
-        <v>72.0</v>
+        <v>38.0</v>
       </c>
       <c r="L18" t="n">
-        <v>45.0</v>
+        <v>38.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.0344827586206897</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -986,40 +1016,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>95.0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.0</v>
+        <v>47.5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1250.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>625.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>1250.0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>625.0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.0</v>
+        <v>62.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>27.5</v>
       </c>
       <c r="L19" t="n">
-        <v>33.0</v>
+        <v>27.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.43478260869565216</v>
+        <v>2.021276595744681</v>
       </c>
     </row>
     <row r="20">
@@ -1027,40 +1057,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20" t="n">
-        <v>30.0</v>
+        <v>125.0</v>
       </c>
       <c r="E20" t="n">
-        <v>30.0</v>
+        <v>62.5</v>
       </c>
       <c r="F20" t="n">
-        <v>200.0</v>
+        <v>1850.0</v>
       </c>
       <c r="G20" t="n">
-        <v>200.0</v>
+        <v>925.0</v>
       </c>
       <c r="H20" t="n">
-        <v>200.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I20" t="n">
-        <v>200.0</v>
+        <v>875.0</v>
       </c>
       <c r="J20" t="n">
-        <v>75.0</v>
+        <v>12.5</v>
       </c>
       <c r="K20" t="n">
-        <v>42.0</v>
+        <v>35.5</v>
       </c>
       <c r="L20" t="n">
-        <v>42.0</v>
+        <v>21.5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9090909090909091</v>
+        <v>2.6041666666666665</v>
       </c>
     </row>
     <row r="21">
@@ -1068,40 +1098,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="n">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="E21" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="F21" t="n">
-        <v>200.0</v>
+        <v>800.0</v>
       </c>
       <c r="G21" t="n">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="H21" t="n">
         <v>200.0</v>
       </c>
       <c r="I21" t="n">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="J21" t="n">
-        <v>81.0</v>
+        <v>67.5</v>
       </c>
       <c r="K21" t="n">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="L21" t="n">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.3559322033898304</v>
       </c>
     </row>
     <row r="22">
@@ -1109,40 +1139,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="F22" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="H22" t="n">
         <v>400.0</v>
       </c>
-      <c r="G22" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>300.0</v>
-      </c>
       <c r="I22" t="n">
-        <v>300.0</v>
+        <v>200.0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.0</v>
+        <v>52.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.7391304347826086</v>
+        <v>1.1363636363636365</v>
       </c>
     </row>
     <row r="23">
@@ -1150,40 +1180,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>50.0</v>
+        <v>90.0</v>
       </c>
       <c r="E23" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="F23" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="G23" t="n">
         <v>400.0</v>
       </c>
       <c r="H23" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="I23" t="n">
-        <v>600.0</v>
+        <v>450.0</v>
       </c>
       <c r="J23" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="K23" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="L23" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.9411764705882355</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1191,40 +1221,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="n">
-        <v>75.0</v>
+        <v>105.0</v>
       </c>
       <c r="E24" t="n">
-        <v>75.0</v>
+        <v>52.5</v>
       </c>
       <c r="F24" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="H24" t="n">
         <v>1350.0</v>
       </c>
-      <c r="G24" t="n">
-        <v>1350.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>300.0</v>
-      </c>
       <c r="I24" t="n">
-        <v>300.0</v>
+        <v>675.0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.0</v>
+        <v>46.5</v>
       </c>
       <c r="K24" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="L24" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.8846153846153846</v>
+        <v>1.6935483870967742</v>
       </c>
     </row>
     <row r="25">
@@ -1232,40 +1262,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="E25" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="F25" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="G25" t="n">
-        <v>200.0</v>
+        <v>250.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="J25" t="n">
-        <v>85.0</v>
+        <v>67.5</v>
       </c>
       <c r="K25" t="n">
-        <v>62.0</v>
+        <v>34.0</v>
       </c>
       <c r="L25" t="n">
-        <v>62.0</v>
+        <v>34.0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.0</v>
+        <v>1.1290322580645162</v>
       </c>
     </row>
     <row r="26">
@@ -1273,39 +1303,244 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
       </c>
       <c r="D26" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.0357142857142856</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.0344827586206897</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
         <v>65.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E31" t="n">
         <v>65.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F31" t="n">
         <v>550.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G31" t="n">
         <v>550.0</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>200.0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>200.0</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J31" t="n">
         <v>38.0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K31" t="n">
         <v>28.0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>28.0</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M31" t="n">
         <v>2.7083333333333335</v>
       </c>
     </row>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Referee</t>
   </si>
@@ -140,10 +140,22 @@
     <t>30</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Marco Guida</t>
+  </si>
+  <si>
     <t>Andrea Colombo</t>
   </si>
   <si>
-    <t>Marco Guida</t>
+    <t>Ermanno Feliciani</t>
+  </si>
+  <si>
+    <t>Giovanni Ayroldi</t>
   </si>
   <si>
     <t>Rosario Abisso</t>
@@ -155,73 +167,73 @@
     <t>Davide Massa</t>
   </si>
   <si>
+    <t>Matteo Marcenaro</t>
+  </si>
+  <si>
+    <t>Federico La Penna</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
     <t>Juan Luca Sacchi</t>
   </si>
   <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Paride Tremolada</t>
+  </si>
+  <si>
+    <t>Matteo Marchetti</t>
+  </si>
+  <si>
     <t>Livio Marinelli</t>
   </si>
   <si>
-    <t>Matteo Marcenaro</t>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Francesco Fourneau</t>
+  </si>
+  <si>
+    <t>Marco Piccinini</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
   </si>
   <si>
     <t>Antonio Giua</t>
   </si>
   <si>
-    <t>Marco Di Bello</t>
-  </si>
-  <si>
-    <t>Ermanno Feliciani</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>Giovanni Ayroldi</t>
-  </si>
-  <si>
-    <t>Daniele Chiffi</t>
-  </si>
-  <si>
-    <t>Paride Tremolada</t>
-  </si>
-  <si>
-    <t>Matteo Marchetti</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Francesco Fourneau</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
+    <t>Gianluca Manganiello</t>
   </si>
   <si>
     <t>Gianluca Aureliano</t>
   </si>
   <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
-    <t>Federico La Penna</t>
-  </si>
-  <si>
     <t>Federico Dionisi</t>
   </si>
   <si>
-    <t>Gianluca Manganiello</t>
-  </si>
-  <si>
-    <t>Antonio Rapuano</t>
-  </si>
-  <si>
     <t>Alessandro Prontera</t>
   </si>
   <si>
-    <t>Marco Piccinini</t>
+    <t>Maria Sole Ferrieri Caputi</t>
+  </si>
+  <si>
+    <t>Giuseppe Collu</t>
   </si>
   <si>
     <t>Davide Di Marco</t>
@@ -360,40 +372,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" t="n">
-        <v>130.0</v>
+        <v>260.0</v>
       </c>
       <c r="E3" t="n">
-        <v>43.333333333333336</v>
+        <v>52.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1300.0</v>
+        <v>3225.0</v>
       </c>
       <c r="G3" t="n">
-        <v>433.3333333333333</v>
+        <v>645.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I3" t="n">
-        <v>466.6666666666667</v>
+        <v>520.0</v>
       </c>
       <c r="J3" t="n">
-        <v>44.333333333333336</v>
+        <v>29.8</v>
       </c>
       <c r="K3" t="n">
-        <v>31.0</v>
+        <v>24.4</v>
       </c>
       <c r="L3" t="n">
-        <v>23.333333333333332</v>
+        <v>26.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.625</v>
+        <v>2.3008849557522124</v>
       </c>
     </row>
     <row r="4">
@@ -401,40 +413,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.333333333333336</v>
+        <v>35.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2025.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G4" t="n">
-        <v>675.0</v>
+        <v>325.0</v>
       </c>
       <c r="H4" t="n">
         <v>1400.0</v>
       </c>
       <c r="I4" t="n">
-        <v>466.6666666666667</v>
+        <v>350.0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.0</v>
+        <v>33.25</v>
       </c>
       <c r="K4" t="n">
-        <v>14.666666666666666</v>
+        <v>41.5</v>
       </c>
       <c r="L4" t="n">
-        <v>18.0</v>
+        <v>35.75</v>
       </c>
       <c r="M4" t="n">
-        <v>2.5396825396825395</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -442,40 +454,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>145.0</v>
+        <v>100.0</v>
       </c>
       <c r="E5" t="n">
-        <v>48.333333333333336</v>
+        <v>25.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1950.0</v>
+        <v>700.0</v>
       </c>
       <c r="G5" t="n">
-        <v>650.0</v>
+        <v>175.0</v>
       </c>
       <c r="H5" t="n">
-        <v>900.0</v>
+        <v>300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>300.0</v>
+        <v>75.0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.666666666666664</v>
+        <v>35.5</v>
       </c>
       <c r="K5" t="n">
-        <v>38.0</v>
+        <v>31.25</v>
       </c>
       <c r="L5" t="n">
-        <v>36.666666666666664</v>
+        <v>31.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.9594594594594594</v>
+        <v>1.0638297872340425</v>
       </c>
     </row>
     <row r="6">
@@ -483,40 +495,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" t="n">
-        <v>105.0</v>
+        <v>360.0</v>
       </c>
       <c r="E6" t="n">
-        <v>35.0</v>
+        <v>90.0</v>
       </c>
       <c r="F6" t="n">
-        <v>850.0</v>
+        <v>6800.0</v>
       </c>
       <c r="G6" t="n">
-        <v>283.3333333333333</v>
+        <v>1700.0</v>
       </c>
       <c r="H6" t="n">
-        <v>750.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I6" t="n">
-        <v>250.0</v>
+        <v>1325.0</v>
       </c>
       <c r="J6" t="n">
-        <v>56.0</v>
+        <v>36.75</v>
       </c>
       <c r="K6" t="n">
-        <v>35.666666666666664</v>
+        <v>15.25</v>
       </c>
       <c r="L6" t="n">
-        <v>34.666666666666664</v>
+        <v>15.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9444444444444444</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="7">
@@ -524,40 +536,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7" t="n">
-        <v>160.0</v>
+        <v>185.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.333333333333336</v>
+        <v>46.25</v>
       </c>
       <c r="F7" t="n">
-        <v>2000.0</v>
+        <v>2350.0</v>
       </c>
       <c r="G7" t="n">
-        <v>666.6666666666666</v>
+        <v>587.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1400.0</v>
+        <v>900.0</v>
       </c>
       <c r="I7" t="n">
-        <v>466.6666666666667</v>
+        <v>225.0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.333333333333336</v>
+        <v>58.0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.666666666666664</v>
+        <v>43.0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.666666666666668</v>
+        <v>39.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.951219512195122</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
@@ -565,40 +577,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.0</v>
+        <v>125.0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.333333333333336</v>
+        <v>31.25</v>
       </c>
       <c r="F8" t="n">
-        <v>2400.0</v>
+        <v>850.0</v>
       </c>
       <c r="G8" t="n">
-        <v>800.0</v>
+        <v>212.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2350.0</v>
+        <v>750.0</v>
       </c>
       <c r="I8" t="n">
-        <v>783.3333333333334</v>
+        <v>187.5</v>
       </c>
       <c r="J8" t="n">
-        <v>33.333333333333336</v>
+        <v>53.75</v>
       </c>
       <c r="K8" t="n">
-        <v>37.0</v>
+        <v>26.75</v>
       </c>
       <c r="L8" t="n">
-        <v>30.0</v>
+        <v>37.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9333333333333333</v>
+        <v>1.893939393939394</v>
       </c>
     </row>
     <row r="9">
@@ -606,40 +618,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9" t="n">
-        <v>190.0</v>
+        <v>255.0</v>
       </c>
       <c r="E9" t="n">
-        <v>63.333333333333336</v>
+        <v>63.75</v>
       </c>
       <c r="F9" t="n">
-        <v>2050.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G9" t="n">
-        <v>683.3333333333334</v>
+        <v>987.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1550.0</v>
+        <v>3350.0</v>
       </c>
       <c r="I9" t="n">
-        <v>516.6666666666666</v>
+        <v>837.5</v>
       </c>
       <c r="J9" t="n">
-        <v>17.0</v>
+        <v>29.25</v>
       </c>
       <c r="K9" t="n">
-        <v>78.66666666666667</v>
+        <v>34.0</v>
       </c>
       <c r="L9" t="n">
-        <v>35.333333333333336</v>
+        <v>24.25</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5675675675675675</v>
+        <v>2.451923076923077</v>
       </c>
     </row>
     <row r="10">
@@ -647,40 +659,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" t="n">
-        <v>185.0</v>
+        <v>250.0</v>
       </c>
       <c r="E10" t="n">
-        <v>61.666666666666664</v>
+        <v>62.5</v>
       </c>
       <c r="F10" t="n">
+        <v>3350.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>837.5</v>
+      </c>
+      <c r="H10" t="n">
         <v>2450.0</v>
       </c>
-      <c r="G10" t="n">
-        <v>816.6666666666666</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1900.0</v>
-      </c>
       <c r="I10" t="n">
-        <v>633.3333333333334</v>
+        <v>612.5</v>
       </c>
       <c r="J10" t="n">
-        <v>38.666666666666664</v>
+        <v>40.75</v>
       </c>
       <c r="K10" t="n">
-        <v>44.333333333333336</v>
+        <v>42.0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.333333333333336</v>
+        <v>33.0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.9365079365079363</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="11">
@@ -688,40 +700,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" t="n">
-        <v>135.0</v>
+        <v>190.0</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5</v>
+        <v>47.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1800.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>900.0</v>
+        <v>675.0</v>
       </c>
       <c r="H11" t="n">
-        <v>300.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I11" t="n">
-        <v>150.0</v>
+        <v>425.0</v>
       </c>
       <c r="J11" t="n">
-        <v>60.5</v>
+        <v>54.5</v>
       </c>
       <c r="K11" t="n">
-        <v>46.5</v>
+        <v>45.0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.5</v>
+        <v>37.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.7</v>
+        <v>1.596638655462185</v>
       </c>
     </row>
     <row r="12">
@@ -729,22 +741,22 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="E12" t="n">
-        <v>32.5</v>
+        <v>25.0</v>
       </c>
       <c r="F12" t="n">
         <v>450.0</v>
       </c>
       <c r="G12" t="n">
-        <v>225.0</v>
+        <v>150.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -753,16 +765,16 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="L12" t="n">
         <v>79.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>73.0</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.25</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="13">
@@ -770,40 +782,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="F13" t="n">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
       <c r="G13" t="n">
-        <v>250.0</v>
+        <v>100.0</v>
       </c>
       <c r="H13" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.0</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="K13" t="n">
-        <v>31.0</v>
+        <v>21.666666666666668</v>
       </c>
       <c r="L13" t="n">
-        <v>31.0</v>
+        <v>54.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.3953488372093024</v>
+        <v>0.958904109589041</v>
       </c>
     </row>
     <row r="14">
@@ -811,40 +823,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0</v>
+        <v>240.0</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>80.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>4150.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>1383.3333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J14" t="n">
-        <v>48.5</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.5</v>
+        <v>27.666666666666668</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5454545454545454</v>
+        <v>2.5806451612903225</v>
       </c>
     </row>
     <row r="15">
@@ -852,40 +864,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
       <c r="E15" t="n">
-        <v>70.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F15" t="n">
-        <v>2000.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1000.0</v>
+        <v>800.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2500.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1250.0</v>
+        <v>783.3333333333334</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="K15" t="n">
-        <v>24.5</v>
+        <v>37.0</v>
       </c>
       <c r="L15" t="n">
-        <v>24.5</v>
+        <v>30.0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.7450980392156863</v>
+        <v>1.9333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -893,40 +905,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.0</v>
+        <v>135.0</v>
       </c>
       <c r="E16" t="n">
-        <v>37.5</v>
+        <v>45.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1350.0</v>
+        <v>2150.0</v>
       </c>
       <c r="G16" t="n">
-        <v>675.0</v>
+        <v>716.6666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I16" t="n">
-        <v>700.0</v>
+        <v>766.6666666666666</v>
       </c>
       <c r="J16" t="n">
-        <v>24.5</v>
+        <v>17.0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.5</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="L16" t="n">
-        <v>21.5</v>
+        <v>15.0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.829268292682927</v>
+        <v>2.109375</v>
       </c>
     </row>
     <row r="17">
@@ -934,40 +946,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" t="n">
-        <v>125.0</v>
+        <v>175.0</v>
       </c>
       <c r="E17" t="n">
-        <v>62.5</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F17" t="n">
-        <v>1600.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G17" t="n">
-        <v>800.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>800.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I17" t="n">
         <v>400.0</v>
       </c>
       <c r="J17" t="n">
-        <v>63.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K17" t="n">
-        <v>36.0</v>
+        <v>49.666666666666664</v>
       </c>
       <c r="L17" t="n">
-        <v>27.0</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M17" t="n">
-        <v>2.6595744680851063</v>
+        <v>2.611940298507463</v>
       </c>
     </row>
     <row r="18">
@@ -975,40 +987,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18" t="n">
-        <v>70.0</v>
+        <v>115.0</v>
       </c>
       <c r="E18" t="n">
-        <v>35.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F18" t="n">
-        <v>600.0</v>
+        <v>950.0</v>
       </c>
       <c r="G18" t="n">
-        <v>300.0</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>500.0</v>
+        <v>850.0</v>
       </c>
       <c r="I18" t="n">
-        <v>250.0</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>35.5</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="K18" t="n">
-        <v>38.0</v>
+        <v>46.0</v>
       </c>
       <c r="L18" t="n">
         <v>38.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.7164179104477613</v>
       </c>
     </row>
     <row r="19">
@@ -1016,40 +1028,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" t="n">
-        <v>95.0</v>
+        <v>190.0</v>
       </c>
       <c r="E19" t="n">
-        <v>47.5</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="F19" t="n">
-        <v>1250.0</v>
+        <v>2050.0</v>
       </c>
       <c r="G19" t="n">
-        <v>625.0</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1250.0</v>
+        <v>1550.0</v>
       </c>
       <c r="I19" t="n">
-        <v>625.0</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="J19" t="n">
-        <v>62.0</v>
+        <v>17.0</v>
       </c>
       <c r="K19" t="n">
-        <v>27.5</v>
+        <v>78.66666666666667</v>
       </c>
       <c r="L19" t="n">
-        <v>27.5</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="M19" t="n">
-        <v>2.021276595744681</v>
+        <v>2.5675675675675675</v>
       </c>
     </row>
     <row r="20">
@@ -1057,40 +1069,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="n">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
       <c r="E20" t="n">
-        <v>62.5</v>
+        <v>45.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1850.0</v>
+        <v>1650.0</v>
       </c>
       <c r="G20" t="n">
-        <v>925.0</v>
+        <v>550.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1750.0</v>
+        <v>1250.0</v>
       </c>
       <c r="I20" t="n">
-        <v>875.0</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>12.5</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>35.5</v>
+        <v>42.0</v>
       </c>
       <c r="L20" t="n">
-        <v>21.5</v>
+        <v>42.0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.6041666666666665</v>
+        <v>1.8493150684931507</v>
       </c>
     </row>
     <row r="21">
@@ -1098,40 +1110,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>80.0</v>
+        <v>165.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="F21" t="n">
-        <v>800.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G21" t="n">
-        <v>400.0</v>
+        <v>750.0</v>
       </c>
       <c r="H21" t="n">
-        <v>200.0</v>
+        <v>2050.0</v>
       </c>
       <c r="I21" t="n">
-        <v>100.0</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="J21" t="n">
-        <v>67.5</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="K21" t="n">
-        <v>37.0</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="L21" t="n">
-        <v>33.0</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="M21" t="n">
-        <v>1.3559322033898304</v>
+        <v>1.9879518072289157</v>
       </c>
     </row>
     <row r="22">
@@ -1139,40 +1151,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>50.0</v>
+        <v>120.0</v>
       </c>
       <c r="E22" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="F22" t="n">
-        <v>300.0</v>
+        <v>1100.0</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0</v>
+        <v>366.6666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>400.0</v>
+        <v>600.0</v>
       </c>
       <c r="I22" t="n">
         <v>200.0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.0</v>
+        <v>42.666666666666664</v>
       </c>
       <c r="K22" t="n">
-        <v>52.0</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="L22" t="n">
-        <v>52.0</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1363636363636365</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -1180,40 +1192,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>90.0</v>
+        <v>175.0</v>
       </c>
       <c r="E23" t="n">
-        <v>45.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F23" t="n">
-        <v>800.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.0</v>
+        <v>766.6666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>900.0</v>
+        <v>700.0</v>
       </c>
       <c r="I23" t="n">
-        <v>450.0</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="J23" t="n">
-        <v>23.0</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="K23" t="n">
-        <v>37.0</v>
+        <v>38.666666666666664</v>
       </c>
       <c r="L23" t="n">
-        <v>23.0</v>
+        <v>36.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.0</v>
+        <v>2.108433734939759</v>
       </c>
     </row>
     <row r="24">
@@ -1221,40 +1233,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24" t="n">
-        <v>105.0</v>
+        <v>180.0</v>
       </c>
       <c r="E24" t="n">
-        <v>52.5</v>
+        <v>60.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1300.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G24" t="n">
-        <v>650.0</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="H24" t="n">
         <v>1350.0</v>
       </c>
       <c r="I24" t="n">
-        <v>675.0</v>
+        <v>450.0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.5</v>
+        <v>26.0</v>
       </c>
       <c r="K24" t="n">
-        <v>43.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L24" t="n">
-        <v>35.0</v>
+        <v>24.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.6935483870967742</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25">
@@ -1262,40 +1274,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" t="n">
-        <v>70.0</v>
+        <v>225.0</v>
       </c>
       <c r="E25" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4675.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1558.3333333333333</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40.333333333333336</v>
+      </c>
+      <c r="L25" t="n">
         <v>35.0</v>
       </c>
-      <c r="F25" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>34.0</v>
-      </c>
       <c r="M25" t="n">
-        <v>1.1290322580645162</v>
+        <v>2.393617021276596</v>
       </c>
     </row>
     <row r="26">
@@ -1303,40 +1315,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26" t="n">
-        <v>50.0</v>
+        <v>135.0</v>
       </c>
       <c r="E26" t="n">
-        <v>50.0</v>
+        <v>67.5</v>
       </c>
       <c r="F26" t="n">
-        <v>600.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G26" t="n">
-        <v>600.0</v>
+        <v>900.0</v>
       </c>
       <c r="H26" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="I26" t="n">
-        <v>600.0</v>
+        <v>150.0</v>
       </c>
       <c r="J26" t="n">
-        <v>35.0</v>
+        <v>60.5</v>
       </c>
       <c r="K26" t="n">
-        <v>41.0</v>
+        <v>46.5</v>
       </c>
       <c r="L26" t="n">
-        <v>35.0</v>
+        <v>46.5</v>
       </c>
       <c r="M26" t="n">
-        <v>2.380952380952381</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
@@ -1344,40 +1356,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27" t="n">
-        <v>30.0</v>
+        <v>105.0</v>
       </c>
       <c r="E27" t="n">
-        <v>30.0</v>
+        <v>52.5</v>
       </c>
       <c r="F27" t="n">
-        <v>200.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G27" t="n">
-        <v>200.0</v>
+        <v>650.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="J27" t="n">
-        <v>26.0</v>
+        <v>45.0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.0</v>
+        <v>14.5</v>
       </c>
       <c r="L27" t="n">
-        <v>24.0</v>
+        <v>14.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.25</v>
+        <v>2.282608695652174</v>
       </c>
     </row>
     <row r="28">
@@ -1385,40 +1397,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.0</v>
+        <v>50.0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1650.0</v>
+        <v>300.0</v>
       </c>
       <c r="G28" t="n">
-        <v>1650.0</v>
+        <v>150.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1800.0</v>
+        <v>400.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1800.0</v>
+        <v>200.0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="K28" t="n">
-        <v>29.0</v>
+        <v>52.0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.0</v>
+        <v>52.0</v>
       </c>
       <c r="M28" t="n">
-        <v>3.0357142857142856</v>
+        <v>1.1363636363636365</v>
       </c>
     </row>
     <row r="29">
@@ -1426,40 +1438,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="J29" t="n">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="L29" t="n">
-        <v>68.0</v>
+        <v>35.0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.2</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="30">
@@ -1467,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1479,28 +1491,28 @@
         <v>30.0</v>
       </c>
       <c r="F30" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>45.0</v>
+        <v>68.0</v>
       </c>
       <c r="K30" t="n">
-        <v>72.0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" t="n">
-        <v>45.0</v>
+        <v>68.0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.0344827586206897</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31">
@@ -1508,22 +1520,22 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.0</v>
+        <v>30.0</v>
       </c>
       <c r="E31" t="n">
-        <v>65.0</v>
+        <v>30.0</v>
       </c>
       <c r="F31" t="n">
-        <v>550.0</v>
+        <v>200.0</v>
       </c>
       <c r="G31" t="n">
-        <v>550.0</v>
+        <v>200.0</v>
       </c>
       <c r="H31" t="n">
         <v>200.0</v>
@@ -1532,15 +1544,97 @@
         <v>200.0</v>
       </c>
       <c r="J31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.0344827586206897</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.7391304347826086</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="J33" t="n">
         <v>38.0</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K33" t="n">
         <v>28.0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>28.0</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M33" t="n">
         <v>2.7083333333333335</v>
       </c>
     </row>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Referee</t>
   </si>
@@ -146,10 +146,64 @@
     <t>32</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Andrea Colombo</t>
+  </si>
+  <si>
     <t>Marco Guida</t>
   </si>
   <si>
-    <t>Andrea Colombo</t>
+    <t>Rosario Abisso</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
+  </si>
+  <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Davide Massa</t>
+  </si>
+  <si>
+    <t>Juan Luca Sacchi</t>
+  </si>
+  <si>
+    <t>Matteo Marchetti</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
+  </si>
+  <si>
+    <t>Federico La Penna</t>
   </si>
   <si>
     <t>Ermanno Feliciani</t>
@@ -158,69 +212,21 @@
     <t>Giovanni Ayroldi</t>
   </si>
   <si>
-    <t>Rosario Abisso</t>
-  </si>
-  <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>Davide Massa</t>
-  </si>
-  <si>
     <t>Matteo Marcenaro</t>
   </si>
   <si>
-    <t>Federico La Penna</t>
-  </si>
-  <si>
-    <t>Marco Di Bello</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>Antonio Rapuano</t>
-  </si>
-  <si>
-    <t>Juan Luca Sacchi</t>
-  </si>
-  <si>
-    <t>Daniele Chiffi</t>
+    <t>Marco Piccinini</t>
+  </si>
+  <si>
+    <t>Antonio Giua</t>
   </si>
   <si>
     <t>Paride Tremolada</t>
   </si>
   <si>
-    <t>Matteo Marchetti</t>
-  </si>
-  <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
     <t>Francesco Fourneau</t>
   </si>
   <si>
-    <t>Marco Piccinini</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
-  </si>
-  <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
-    <t>Antonio Giua</t>
-  </si>
-  <si>
-    <t>Gianluca Manganiello</t>
-  </si>
-  <si>
     <t>Gianluca Aureliano</t>
   </si>
   <si>
@@ -234,6 +240,12 @@
   </si>
   <si>
     <t>Giuseppe Collu</t>
+  </si>
+  <si>
+    <t>Luca Massimi</t>
+  </si>
+  <si>
+    <t>Kevin Bonacina</t>
   </si>
   <si>
     <t>Davide Di Marco</t>
@@ -372,40 +384,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.0</v>
+        <v>280.0</v>
       </c>
       <c r="E3" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3225.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G3" t="n">
-        <v>645.0</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="H3" t="n">
-        <v>2600.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I3" t="n">
-        <v>520.0</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J3" t="n">
-        <v>29.8</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="K3" t="n">
-        <v>24.4</v>
+        <v>50.57142857142857</v>
       </c>
       <c r="L3" t="n">
-        <v>26.4</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3008849557522124</v>
+        <v>1.6470588235294117</v>
       </c>
     </row>
     <row r="4">
@@ -413,40 +425,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="n">
-        <v>140.0</v>
+        <v>330.0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.0</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="F4" t="n">
-        <v>1300.0</v>
+        <v>3825.0</v>
       </c>
       <c r="G4" t="n">
-        <v>325.0</v>
+        <v>546.4285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>1400.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I4" t="n">
-        <v>350.0</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="J4" t="n">
-        <v>33.25</v>
+        <v>28.857142857142858</v>
       </c>
       <c r="K4" t="n">
-        <v>41.5</v>
+        <v>31.714285714285715</v>
       </c>
       <c r="L4" t="n">
-        <v>35.75</v>
+        <v>29.571428571428573</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4</v>
+        <v>1.9879518072289157</v>
       </c>
     </row>
     <row r="5">
@@ -454,40 +466,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" t="n">
-        <v>100.0</v>
+        <v>235.0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.0</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F5" t="n">
-        <v>700.0</v>
+        <v>2650.0</v>
       </c>
       <c r="G5" t="n">
-        <v>175.0</v>
+        <v>441.6666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I5" t="n">
-        <v>75.0</v>
+        <v>200.0</v>
       </c>
       <c r="J5" t="n">
-        <v>35.5</v>
+        <v>56.833333333333336</v>
       </c>
       <c r="K5" t="n">
-        <v>31.25</v>
+        <v>40.5</v>
       </c>
       <c r="L5" t="n">
-        <v>31.25</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="M5" t="n">
-        <v>1.0638297872340425</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -495,40 +507,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" t="n">
-        <v>360.0</v>
+        <v>445.0</v>
       </c>
       <c r="E6" t="n">
-        <v>90.0</v>
+        <v>74.16666666666667</v>
       </c>
       <c r="F6" t="n">
         <v>6800.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1700.0</v>
+        <v>1133.3333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>5300.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1325.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>36.75</v>
+        <v>35.166666666666664</v>
       </c>
       <c r="K6" t="n">
-        <v>15.25</v>
+        <v>43.0</v>
       </c>
       <c r="L6" t="n">
-        <v>15.25</v>
+        <v>28.5</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4285714285714284</v>
+        <v>2.5722543352601157</v>
       </c>
     </row>
     <row r="7">
@@ -536,40 +548,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" t="n">
-        <v>185.0</v>
+        <v>225.0</v>
       </c>
       <c r="E7" t="n">
-        <v>46.25</v>
+        <v>37.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2350.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G7" t="n">
-        <v>587.5</v>
+        <v>375.0</v>
       </c>
       <c r="H7" t="n">
-        <v>900.0</v>
+        <v>2150.0</v>
       </c>
       <c r="I7" t="n">
-        <v>225.0</v>
+        <v>358.3333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>58.0</v>
+        <v>56.833333333333336</v>
       </c>
       <c r="K7" t="n">
-        <v>43.0</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="L7" t="n">
-        <v>39.25</v>
+        <v>36.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.85</v>
+        <v>1.9396551724137931</v>
       </c>
     </row>
     <row r="8">
@@ -577,40 +589,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D8" t="n">
-        <v>125.0</v>
+        <v>265.0</v>
       </c>
       <c r="E8" t="n">
-        <v>31.25</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="F8" t="n">
-        <v>850.0</v>
+        <v>3550.0</v>
       </c>
       <c r="G8" t="n">
-        <v>212.5</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>750.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I8" t="n">
-        <v>187.5</v>
+        <v>550.0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.75</v>
+        <v>28.833333333333332</v>
       </c>
       <c r="K8" t="n">
-        <v>26.75</v>
+        <v>32.5</v>
       </c>
       <c r="L8" t="n">
-        <v>37.75</v>
+        <v>22.166666666666668</v>
       </c>
       <c r="M8" t="n">
-        <v>1.893939393939394</v>
+        <v>2.154471544715447</v>
       </c>
     </row>
     <row r="9">
@@ -618,40 +630,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>255.0</v>
+        <v>245.0</v>
       </c>
       <c r="E9" t="n">
-        <v>63.75</v>
+        <v>40.833333333333336</v>
       </c>
       <c r="F9" t="n">
-        <v>3950.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G9" t="n">
-        <v>987.5</v>
+        <v>408.3333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>3350.0</v>
+        <v>2250.0</v>
       </c>
       <c r="I9" t="n">
-        <v>837.5</v>
+        <v>375.0</v>
       </c>
       <c r="J9" t="n">
-        <v>29.25</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="K9" t="n">
-        <v>34.0</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="L9" t="n">
-        <v>24.25</v>
+        <v>39.833333333333336</v>
       </c>
       <c r="M9" t="n">
-        <v>2.451923076923077</v>
+        <v>1.7375886524822695</v>
       </c>
     </row>
     <row r="10">
@@ -659,40 +671,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>250.0</v>
+        <v>295.0</v>
       </c>
       <c r="E10" t="n">
-        <v>62.5</v>
+        <v>49.166666666666664</v>
       </c>
       <c r="F10" t="n">
-        <v>3350.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G10" t="n">
-        <v>837.5</v>
+        <v>550.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2450.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>612.5</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="J10" t="n">
-        <v>40.75</v>
+        <v>67.33333333333333</v>
       </c>
       <c r="K10" t="n">
-        <v>42.0</v>
+        <v>46.5</v>
       </c>
       <c r="L10" t="n">
-        <v>33.0</v>
+        <v>44.833333333333336</v>
       </c>
       <c r="M10" t="n">
-        <v>2.7777777777777777</v>
+        <v>2.062937062937063</v>
       </c>
     </row>
     <row r="11">
@@ -700,40 +712,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>190.0</v>
+        <v>290.0</v>
       </c>
       <c r="E11" t="n">
-        <v>47.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F11" t="n">
-        <v>2700.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G11" t="n">
-        <v>675.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>1700.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I11" t="n">
-        <v>425.0</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>54.5</v>
+        <v>35.5</v>
       </c>
       <c r="K11" t="n">
-        <v>45.0</v>
+        <v>33.5</v>
       </c>
       <c r="L11" t="n">
-        <v>37.75</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="M11" t="n">
-        <v>1.596638655462185</v>
+        <v>1.8125</v>
       </c>
     </row>
     <row r="12">
@@ -741,40 +753,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>75.0</v>
+        <v>135.0</v>
       </c>
       <c r="E12" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="F12" t="n">
-        <v>450.0</v>
+        <v>950.0</v>
       </c>
       <c r="G12" t="n">
-        <v>150.0</v>
+        <v>190.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.0</v>
+        <v>70.4</v>
       </c>
       <c r="K12" t="n">
-        <v>20.666666666666668</v>
+        <v>44.0</v>
       </c>
       <c r="L12" t="n">
-        <v>79.0</v>
+        <v>66.6</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9615384615384616</v>
+        <v>1.0305343511450382</v>
       </c>
     </row>
     <row r="13">
@@ -782,40 +794,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D13" t="n">
-        <v>70.0</v>
+        <v>110.0</v>
       </c>
       <c r="E13" t="n">
-        <v>23.333333333333332</v>
+        <v>22.0</v>
       </c>
       <c r="F13" t="n">
-        <v>300.0</v>
+        <v>500.0</v>
       </c>
       <c r="G13" t="n">
         <v>100.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.333333333333336</v>
+        <v>53.6</v>
       </c>
       <c r="K13" t="n">
-        <v>21.666666666666668</v>
+        <v>41.4</v>
       </c>
       <c r="L13" t="n">
-        <v>54.0</v>
+        <v>48.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.958904109589041</v>
+        <v>0.9401709401709402</v>
       </c>
     </row>
     <row r="14">
@@ -823,40 +835,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14" t="n">
-        <v>240.0</v>
+        <v>205.0</v>
       </c>
       <c r="E14" t="n">
-        <v>80.0</v>
+        <v>41.0</v>
       </c>
       <c r="F14" t="n">
-        <v>4150.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1383.3333333333333</v>
+        <v>420.0</v>
       </c>
       <c r="H14" t="n">
-        <v>2400.0</v>
+        <v>700.0</v>
       </c>
       <c r="I14" t="n">
-        <v>800.0</v>
+        <v>140.0</v>
       </c>
       <c r="J14" t="n">
-        <v>27.666666666666668</v>
+        <v>47.6</v>
       </c>
       <c r="K14" t="n">
-        <v>47.0</v>
+        <v>46.4</v>
       </c>
       <c r="L14" t="n">
-        <v>27.666666666666668</v>
+        <v>44.6</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5806451612903225</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="15">
@@ -864,40 +876,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0</v>
+        <v>285.0</v>
       </c>
       <c r="E15" t="n">
-        <v>48.333333333333336</v>
+        <v>57.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2400.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G15" t="n">
-        <v>800.0</v>
+        <v>790.0</v>
       </c>
       <c r="H15" t="n">
-        <v>2350.0</v>
+        <v>3550.0</v>
       </c>
       <c r="I15" t="n">
-        <v>783.3333333333334</v>
+        <v>710.0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.333333333333336</v>
+        <v>23.4</v>
       </c>
       <c r="K15" t="n">
-        <v>37.0</v>
+        <v>34.8</v>
       </c>
       <c r="L15" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.9333333333333333</v>
+        <v>2.355371900826446</v>
       </c>
     </row>
     <row r="16">
@@ -905,40 +917,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.0</v>
+        <v>205.0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2150.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>716.6666666666666</v>
+        <v>480.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2300.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I16" t="n">
-        <v>766.6666666666666</v>
+        <v>550.0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0</v>
+        <v>28.8</v>
       </c>
       <c r="K16" t="n">
-        <v>16.333333333333332</v>
+        <v>31.4</v>
       </c>
       <c r="L16" t="n">
-        <v>15.0</v>
+        <v>36.0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.109375</v>
+        <v>1.5413533834586466</v>
       </c>
     </row>
     <row r="17">
@@ -946,40 +958,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D17" t="n">
-        <v>175.0</v>
+        <v>240.0</v>
       </c>
       <c r="E17" t="n">
-        <v>58.333333333333336</v>
+        <v>48.0</v>
       </c>
       <c r="F17" t="n">
-        <v>2200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>733.3333333333334</v>
+        <v>520.0</v>
       </c>
       <c r="H17" t="n">
-        <v>1200.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I17" t="n">
-        <v>400.0</v>
+        <v>460.0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.333333333333336</v>
+        <v>31.2</v>
       </c>
       <c r="K17" t="n">
-        <v>49.666666666666664</v>
+        <v>45.6</v>
       </c>
       <c r="L17" t="n">
-        <v>24.333333333333332</v>
+        <v>32.2</v>
       </c>
       <c r="M17" t="n">
-        <v>2.611940298507463</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="18">
@@ -987,40 +999,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.0</v>
+        <v>270.0</v>
       </c>
       <c r="E18" t="n">
-        <v>38.333333333333336</v>
+        <v>54.0</v>
       </c>
       <c r="F18" t="n">
-        <v>950.0</v>
+        <v>2850.0</v>
       </c>
       <c r="G18" t="n">
-        <v>316.6666666666667</v>
+        <v>570.0</v>
       </c>
       <c r="H18" t="n">
-        <v>850.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I18" t="n">
-        <v>283.3333333333333</v>
+        <v>470.0</v>
       </c>
       <c r="J18" t="n">
-        <v>36.333333333333336</v>
+        <v>26.6</v>
       </c>
       <c r="K18" t="n">
-        <v>46.0</v>
+        <v>67.6</v>
       </c>
       <c r="L18" t="n">
-        <v>38.0</v>
+        <v>31.8</v>
       </c>
       <c r="M18" t="n">
-        <v>1.7164179104477613</v>
+        <v>2.2131147540983607</v>
       </c>
     </row>
     <row r="19">
@@ -1028,40 +1040,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D19" t="n">
-        <v>190.0</v>
+        <v>325.0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.333333333333336</v>
+        <v>65.0</v>
       </c>
       <c r="F19" t="n">
-        <v>2050.0</v>
+        <v>5875.0</v>
       </c>
       <c r="G19" t="n">
-        <v>683.3333333333334</v>
+        <v>1175.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1550.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I19" t="n">
-        <v>516.6666666666666</v>
+        <v>610.0</v>
       </c>
       <c r="J19" t="n">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
       <c r="K19" t="n">
-        <v>78.66666666666667</v>
+        <v>34.4</v>
       </c>
       <c r="L19" t="n">
-        <v>35.333333333333336</v>
+        <v>30.0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.5675675675675675</v>
+        <v>2.195945945945946</v>
       </c>
     </row>
     <row r="20">
@@ -1069,40 +1081,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D20" t="n">
-        <v>135.0</v>
+        <v>210.0</v>
       </c>
       <c r="E20" t="n">
-        <v>45.0</v>
+        <v>42.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1650.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G20" t="n">
-        <v>550.0</v>
+        <v>540.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1250.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I20" t="n">
-        <v>416.6666666666667</v>
+        <v>340.0</v>
       </c>
       <c r="J20" t="n">
-        <v>65.33333333333333</v>
+        <v>54.6</v>
       </c>
       <c r="K20" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="L20" t="n">
-        <v>42.0</v>
+        <v>41.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.8493150684931507</v>
+        <v>1.4383561643835616</v>
       </c>
     </row>
     <row r="21">
@@ -1110,40 +1122,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>165.0</v>
+        <v>100.0</v>
       </c>
       <c r="E21" t="n">
-        <v>55.0</v>
+        <v>25.0</v>
       </c>
       <c r="F21" t="n">
-        <v>2250.0</v>
+        <v>700.0</v>
       </c>
       <c r="G21" t="n">
-        <v>750.0</v>
+        <v>175.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2050.0</v>
+        <v>300.0</v>
       </c>
       <c r="I21" t="n">
-        <v>683.3333333333334</v>
+        <v>75.0</v>
       </c>
       <c r="J21" t="n">
-        <v>21.333333333333332</v>
+        <v>35.5</v>
       </c>
       <c r="K21" t="n">
-        <v>47.333333333333336</v>
+        <v>31.25</v>
       </c>
       <c r="L21" t="n">
-        <v>27.333333333333332</v>
+        <v>31.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.9879518072289157</v>
+        <v>1.0638297872340425</v>
       </c>
     </row>
     <row r="22">
@@ -1151,40 +1163,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22" t="n">
-        <v>120.0</v>
+        <v>360.0</v>
       </c>
       <c r="E22" t="n">
-        <v>40.0</v>
+        <v>90.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1100.0</v>
+        <v>6800.0</v>
       </c>
       <c r="G22" t="n">
-        <v>366.6666666666667</v>
+        <v>1700.0</v>
       </c>
       <c r="H22" t="n">
-        <v>600.0</v>
+        <v>5300.0</v>
       </c>
       <c r="I22" t="n">
-        <v>200.0</v>
+        <v>1325.0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.666666666666664</v>
+        <v>36.75</v>
       </c>
       <c r="K22" t="n">
-        <v>57.333333333333336</v>
+        <v>15.25</v>
       </c>
       <c r="L22" t="n">
-        <v>40.666666666666664</v>
+        <v>15.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.6666666666666667</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="23">
@@ -1192,40 +1204,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" t="n">
-        <v>175.0</v>
+        <v>250.0</v>
       </c>
       <c r="E23" t="n">
-        <v>58.333333333333336</v>
+        <v>62.5</v>
       </c>
       <c r="F23" t="n">
-        <v>2300.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G23" t="n">
-        <v>766.6666666666666</v>
+        <v>837.5</v>
       </c>
       <c r="H23" t="n">
-        <v>700.0</v>
+        <v>2450.0</v>
       </c>
       <c r="I23" t="n">
-        <v>233.33333333333334</v>
+        <v>612.5</v>
       </c>
       <c r="J23" t="n">
-        <v>65.33333333333333</v>
+        <v>40.75</v>
       </c>
       <c r="K23" t="n">
-        <v>38.666666666666664</v>
+        <v>42.0</v>
       </c>
       <c r="L23" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.108433734939759</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="24">
@@ -1233,40 +1245,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D24" t="n">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.0</v>
+        <v>42.5</v>
       </c>
       <c r="F24" t="n">
-        <v>1600.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G24" t="n">
-        <v>533.3333333333334</v>
+        <v>425.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1350.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I24" t="n">
-        <v>450.0</v>
+        <v>300.0</v>
       </c>
       <c r="J24" t="n">
-        <v>26.0</v>
+        <v>39.5</v>
       </c>
       <c r="K24" t="n">
-        <v>33.333333333333336</v>
+        <v>51.75</v>
       </c>
       <c r="L24" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="M24" t="n">
-        <v>2.25</v>
+        <v>1.683168316831683</v>
       </c>
     </row>
     <row r="25">
@@ -1274,40 +1286,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="n">
         <v>3.0</v>
       </c>
       <c r="D25" t="n">
-        <v>225.0</v>
+        <v>175.0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F25" t="n">
-        <v>4675.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1558.3333333333333</v>
+        <v>700.0</v>
       </c>
       <c r="H25" t="n">
-        <v>1950.0</v>
+        <v>300.0</v>
       </c>
       <c r="I25" t="n">
-        <v>650.0</v>
+        <v>100.0</v>
       </c>
       <c r="J25" t="n">
+        <v>72.33333333333333</v>
+      </c>
+      <c r="K25" t="n">
         <v>46.666666666666664</v>
       </c>
-      <c r="K25" t="n">
-        <v>40.333333333333336</v>
-      </c>
       <c r="L25" t="n">
-        <v>35.0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M25" t="n">
-        <v>2.393617021276596</v>
+        <v>2.611940298507463</v>
       </c>
     </row>
     <row r="26">
@@ -1315,40 +1327,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>135.0</v>
+        <v>175.0</v>
       </c>
       <c r="E26" t="n">
-        <v>67.5</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F26" t="n">
-        <v>1800.0</v>
+        <v>2200.0</v>
       </c>
       <c r="G26" t="n">
-        <v>900.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H26" t="n">
-        <v>300.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0</v>
+        <v>400.0</v>
       </c>
       <c r="J26" t="n">
-        <v>60.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K26" t="n">
-        <v>46.5</v>
+        <v>49.666666666666664</v>
       </c>
       <c r="L26" t="n">
-        <v>46.5</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M26" t="n">
-        <v>2.7</v>
+        <v>2.611940298507463</v>
       </c>
     </row>
     <row r="27">
@@ -1356,40 +1368,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" t="n">
-        <v>105.0</v>
+        <v>165.0</v>
       </c>
       <c r="E27" t="n">
-        <v>52.5</v>
+        <v>55.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1300.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G27" t="n">
-        <v>650.0</v>
+        <v>750.0</v>
       </c>
       <c r="H27" t="n">
-        <v>300.0</v>
+        <v>2050.0</v>
       </c>
       <c r="I27" t="n">
-        <v>150.0</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="J27" t="n">
-        <v>45.0</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="K27" t="n">
-        <v>14.5</v>
+        <v>47.333333333333336</v>
       </c>
       <c r="L27" t="n">
-        <v>14.5</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="M27" t="n">
-        <v>2.282608695652174</v>
+        <v>1.9879518072289157</v>
       </c>
     </row>
     <row r="28">
@@ -1397,40 +1409,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28" t="n">
-        <v>50.0</v>
+        <v>125.0</v>
       </c>
       <c r="E28" t="n">
-        <v>25.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F28" t="n">
-        <v>300.0</v>
+        <v>1650.0</v>
       </c>
       <c r="G28" t="n">
-        <v>150.0</v>
+        <v>550.0</v>
       </c>
       <c r="H28" t="n">
-        <v>400.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I28" t="n">
-        <v>200.0</v>
+        <v>583.3333333333334</v>
       </c>
       <c r="J28" t="n">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="K28" t="n">
-        <v>52.0</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="L28" t="n">
-        <v>52.0</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1363636363636365</v>
+        <v>1.838235294117647</v>
       </c>
     </row>
     <row r="29">
@@ -1438,40 +1450,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29" t="n">
-        <v>50.0</v>
+        <v>90.0</v>
       </c>
       <c r="E29" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="F29" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G29" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="H29" t="n">
-        <v>600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I29" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="J29" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="K29" t="n">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
       <c r="L29" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="M29" t="n">
-        <v>2.380952380952381</v>
+        <v>1.836734693877551</v>
       </c>
     </row>
     <row r="30">
@@ -1479,7 +1491,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1520,7 +1532,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1561,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -1602,39 +1614,121 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
       </c>
       <c r="D33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.272727272727273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
         <v>65.0</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E35" t="n">
         <v>65.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F35" t="n">
         <v>550.0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G35" t="n">
         <v>550.0</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>200.0</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>200.0</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J35" t="n">
         <v>38.0</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K35" t="n">
         <v>28.0</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>28.0</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M35" t="n">
         <v>2.7083333333333335</v>
       </c>
     </row>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Referee</t>
   </si>
@@ -152,66 +152,72 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Marco Guida</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
     <t>Andrea Colombo</t>
   </si>
   <si>
-    <t>Marco Guida</t>
+    <t>Ermanno Feliciani</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
+  </si>
+  <si>
+    <t>Davide Massa</t>
+  </si>
+  <si>
+    <t>Juan Luca Sacchi</t>
+  </si>
+  <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
+  </si>
+  <si>
+    <t>Federico La Penna</t>
+  </si>
+  <si>
+    <t>Giovanni Ayroldi</t>
   </si>
   <si>
     <t>Rosario Abisso</t>
   </si>
   <si>
-    <t>Antonio Rapuano</t>
-  </si>
-  <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>Daniele Chiffi</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
-  </si>
-  <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>Marco Di Bello</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>Gianluca Manganiello</t>
-  </si>
-  <si>
-    <t>Davide Massa</t>
-  </si>
-  <si>
-    <t>Juan Luca Sacchi</t>
-  </si>
-  <si>
     <t>Matteo Marchetti</t>
   </si>
   <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
-    <t>Federico La Penna</t>
-  </si>
-  <si>
-    <t>Ermanno Feliciani</t>
-  </si>
-  <si>
-    <t>Giovanni Ayroldi</t>
-  </si>
-  <si>
     <t>Matteo Marcenaro</t>
   </si>
   <si>
@@ -227,18 +233,27 @@
     <t>Francesco Fourneau</t>
   </si>
   <si>
+    <t>Federico Dionisi</t>
+  </si>
+  <si>
     <t>Gianluca Aureliano</t>
   </si>
   <si>
-    <t>Federico Dionisi</t>
+    <t>Maria Sole Ferrieri Caputi</t>
+  </si>
+  <si>
+    <t>Davide Di Marco</t>
+  </si>
+  <si>
+    <t>Francesco Cosso</t>
+  </si>
+  <si>
+    <t>Fabio Maresca</t>
   </si>
   <si>
     <t>Alessandro Prontera</t>
   </si>
   <si>
-    <t>Maria Sole Ferrieri Caputi</t>
-  </si>
-  <si>
     <t>Giuseppe Collu</t>
   </si>
   <si>
@@ -246,9 +261,6 @@
   </si>
   <si>
     <t>Kevin Bonacina</t>
-  </si>
-  <si>
-    <t>Davide Di Marco</t>
   </si>
 </sst>
 </file>
@@ -342,41 +354,41 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n">
-        <v>760.0</v>
+        <v>360.0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="F2" t="n">
-        <v>6550.0</v>
+        <v>4025.0</v>
       </c>
       <c r="G2" t="n">
-        <v>327.5</v>
+        <v>503.125</v>
       </c>
       <c r="H2" t="n">
-        <v>6500.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I2" t="n">
         <v>325.0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.9</v>
+        <v>35.5</v>
       </c>
       <c r="K2" t="n">
-        <v>35.5</v>
+        <v>36.875</v>
       </c>
       <c r="L2" t="n">
-        <v>35.15</v>
+        <v>35.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.5541922290388548</v>
+        <v>1.9672131147540983</v>
       </c>
     </row>
     <row r="3">
@@ -384,40 +396,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>280.0</v>
+        <v>270.0</v>
       </c>
       <c r="E3" t="n">
-        <v>40.0</v>
+        <v>33.75</v>
       </c>
       <c r="F3" t="n">
-        <v>2600.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G3" t="n">
-        <v>371.42857142857144</v>
+        <v>306.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3000.0</v>
+        <v>1800.0</v>
       </c>
       <c r="I3" t="n">
-        <v>428.57142857142856</v>
+        <v>225.0</v>
       </c>
       <c r="J3" t="n">
-        <v>32.714285714285715</v>
+        <v>57.875</v>
       </c>
       <c r="K3" t="n">
-        <v>50.57142857142857</v>
+        <v>37.5</v>
       </c>
       <c r="L3" t="n">
-        <v>30.285714285714285</v>
+        <v>49.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.6470588235294117</v>
+        <v>1.3043478260869565</v>
       </c>
     </row>
     <row r="4">
@@ -425,40 +437,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>330.0</v>
+        <v>545.0</v>
       </c>
       <c r="E4" t="n">
-        <v>47.142857142857146</v>
+        <v>68.125</v>
       </c>
       <c r="F4" t="n">
-        <v>3825.0</v>
+        <v>8200.0</v>
       </c>
       <c r="G4" t="n">
-        <v>546.4285714285714</v>
+        <v>1025.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2600.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I4" t="n">
-        <v>371.42857142857144</v>
+        <v>650.0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.857142857142858</v>
+        <v>41.5</v>
       </c>
       <c r="K4" t="n">
-        <v>31.714285714285715</v>
+        <v>44.125</v>
       </c>
       <c r="L4" t="n">
-        <v>29.571428571428573</v>
+        <v>33.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.9879518072289157</v>
+        <v>2.4439461883408073</v>
       </c>
     </row>
     <row r="5">
@@ -466,40 +478,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>235.0</v>
+        <v>320.0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.166666666666664</v>
+        <v>40.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2650.0</v>
+        <v>2950.0</v>
       </c>
       <c r="G5" t="n">
-        <v>441.6666666666667</v>
+        <v>368.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1200.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.0</v>
+        <v>293.75</v>
       </c>
       <c r="J5" t="n">
-        <v>56.833333333333336</v>
+        <v>31.5</v>
       </c>
       <c r="K5" t="n">
-        <v>40.5</v>
+        <v>56.75</v>
       </c>
       <c r="L5" t="n">
-        <v>35.333333333333336</v>
+        <v>44.875</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -507,40 +519,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>445.0</v>
+        <v>345.0</v>
       </c>
       <c r="E6" t="n">
-        <v>74.16666666666667</v>
+        <v>43.125</v>
       </c>
       <c r="F6" t="n">
-        <v>6800.0</v>
+        <v>4050.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1133.3333333333333</v>
+        <v>506.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4000.0</v>
+        <v>3850.0</v>
       </c>
       <c r="I6" t="n">
-        <v>666.6666666666666</v>
+        <v>481.25</v>
       </c>
       <c r="J6" t="n">
-        <v>35.166666666666664</v>
+        <v>36.375</v>
       </c>
       <c r="K6" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.5</v>
+        <v>36.375</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5722543352601157</v>
+        <v>1.7164179104477613</v>
       </c>
     </row>
     <row r="7">
@@ -548,40 +560,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>225.0</v>
+        <v>380.0</v>
       </c>
       <c r="E7" t="n">
-        <v>37.5</v>
+        <v>47.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2250.0</v>
+        <v>3200.0</v>
       </c>
       <c r="G7" t="n">
-        <v>375.0</v>
+        <v>400.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2150.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I7" t="n">
-        <v>358.3333333333333</v>
+        <v>343.75</v>
       </c>
       <c r="J7" t="n">
-        <v>56.833333333333336</v>
+        <v>38.875</v>
       </c>
       <c r="K7" t="n">
-        <v>28.666666666666668</v>
+        <v>43.125</v>
       </c>
       <c r="L7" t="n">
-        <v>36.0</v>
+        <v>37.125</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9396551724137931</v>
+        <v>1.8446601941747574</v>
       </c>
     </row>
     <row r="8">
@@ -589,40 +601,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" t="n">
-        <v>265.0</v>
+        <v>280.0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.166666666666664</v>
+        <v>40.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3550.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G8" t="n">
-        <v>591.6666666666666</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="H8" t="n">
-        <v>3300.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I8" t="n">
-        <v>550.0</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="J8" t="n">
-        <v>28.833333333333332</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="K8" t="n">
-        <v>32.5</v>
+        <v>50.57142857142857</v>
       </c>
       <c r="L8" t="n">
-        <v>22.166666666666668</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="M8" t="n">
-        <v>2.154471544715447</v>
+        <v>1.6470588235294117</v>
       </c>
     </row>
     <row r="9">
@@ -630,40 +642,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>245.0</v>
+        <v>180.0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.833333333333336</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="F9" t="n">
-        <v>2450.0</v>
+        <v>1200.0</v>
       </c>
       <c r="G9" t="n">
-        <v>408.3333333333333</v>
+        <v>171.42857142857142</v>
       </c>
       <c r="H9" t="n">
-        <v>2250.0</v>
+        <v>800.0</v>
       </c>
       <c r="I9" t="n">
-        <v>375.0</v>
+        <v>114.28571428571429</v>
       </c>
       <c r="J9" t="n">
-        <v>41.333333333333336</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="K9" t="n">
-        <v>47.333333333333336</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="L9" t="n">
-        <v>39.833333333333336</v>
+        <v>24.428571428571427</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7375886524822695</v>
+        <v>1.0778443113772456</v>
       </c>
     </row>
     <row r="10">
@@ -671,40 +683,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>295.0</v>
+        <v>135.0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.166666666666664</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="F10" t="n">
-        <v>3300.0</v>
+        <v>500.0</v>
       </c>
       <c r="G10" t="n">
-        <v>550.0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="I10" t="n">
-        <v>166.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="J10" t="n">
-        <v>67.33333333333333</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="K10" t="n">
-        <v>46.5</v>
+        <v>41.0</v>
       </c>
       <c r="L10" t="n">
-        <v>44.833333333333336</v>
+        <v>38.857142857142854</v>
       </c>
       <c r="M10" t="n">
-        <v>2.062937062937063</v>
+        <v>0.8385093167701864</v>
       </c>
     </row>
     <row r="11">
@@ -712,40 +724,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="E11" t="n">
-        <v>48.333333333333336</v>
+        <v>40.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2300.0</v>
+        <v>2650.0</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3333333333333</v>
+        <v>378.57142857142856</v>
       </c>
       <c r="H11" t="n">
-        <v>2350.0</v>
+        <v>1700.0</v>
       </c>
       <c r="I11" t="n">
-        <v>391.6666666666667</v>
+        <v>242.85714285714286</v>
       </c>
       <c r="J11" t="n">
-        <v>35.5</v>
+        <v>43.857142857142854</v>
       </c>
       <c r="K11" t="n">
-        <v>33.5</v>
+        <v>50.42857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>33.166666666666664</v>
+        <v>47.285714285714285</v>
       </c>
       <c r="M11" t="n">
-        <v>1.8125</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="12">
@@ -753,40 +765,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>135.0</v>
+        <v>255.0</v>
       </c>
       <c r="E12" t="n">
-        <v>27.0</v>
+        <v>36.42857142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>950.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G12" t="n">
-        <v>190.0</v>
+        <v>321.42857142857144</v>
       </c>
       <c r="H12" t="n">
-        <v>400.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.0</v>
+        <v>335.7142857142857</v>
       </c>
       <c r="J12" t="n">
-        <v>70.4</v>
+        <v>48.714285714285715</v>
       </c>
       <c r="K12" t="n">
-        <v>44.0</v>
+        <v>28.285714285714285</v>
       </c>
       <c r="L12" t="n">
-        <v>66.6</v>
+        <v>34.57142857142857</v>
       </c>
       <c r="M12" t="n">
-        <v>1.0305343511450382</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="13">
@@ -794,40 +806,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0</v>
+        <v>325.0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.0</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>500.0</v>
+        <v>4050.0</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0</v>
+        <v>578.5714285714286</v>
       </c>
       <c r="H13" t="n">
-        <v>200.0</v>
+        <v>3650.0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.0</v>
+        <v>521.4285714285714</v>
       </c>
       <c r="J13" t="n">
-        <v>53.6</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="K13" t="n">
-        <v>41.4</v>
+        <v>41.57142857142857</v>
       </c>
       <c r="L13" t="n">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9401709401709402</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="14">
@@ -835,40 +847,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>205.0</v>
+        <v>265.0</v>
       </c>
       <c r="E14" t="n">
-        <v>41.0</v>
+        <v>37.857142857142854</v>
       </c>
       <c r="F14" t="n">
-        <v>2100.0</v>
+        <v>2600.0</v>
       </c>
       <c r="G14" t="n">
-        <v>420.0</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="H14" t="n">
-        <v>700.0</v>
+        <v>3150.0</v>
       </c>
       <c r="I14" t="n">
-        <v>140.0</v>
+        <v>450.0</v>
       </c>
       <c r="J14" t="n">
-        <v>47.6</v>
+        <v>26.142857142857142</v>
       </c>
       <c r="K14" t="n">
-        <v>46.4</v>
+        <v>35.285714285714285</v>
       </c>
       <c r="L14" t="n">
-        <v>44.6</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="M14" t="n">
-        <v>1.64</v>
+        <v>1.440217391304348</v>
       </c>
     </row>
     <row r="15">
@@ -876,40 +888,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" t="n">
-        <v>285.0</v>
+        <v>325.0</v>
       </c>
       <c r="E15" t="n">
-        <v>57.0</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="F15" t="n">
-        <v>3950.0</v>
+        <v>4350.0</v>
       </c>
       <c r="G15" t="n">
-        <v>790.0</v>
+        <v>621.4285714285714</v>
       </c>
       <c r="H15" t="n">
-        <v>3550.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I15" t="n">
-        <v>710.0</v>
+        <v>585.7142857142857</v>
       </c>
       <c r="J15" t="n">
-        <v>23.4</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="K15" t="n">
-        <v>34.8</v>
+        <v>31.285714285714285</v>
       </c>
       <c r="L15" t="n">
-        <v>27.0</v>
+        <v>22.428571428571427</v>
       </c>
       <c r="M15" t="n">
-        <v>2.355371900826446</v>
+        <v>2.2569444444444446</v>
       </c>
     </row>
     <row r="16">
@@ -917,40 +929,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D16" t="n">
-        <v>205.0</v>
+        <v>325.0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.0</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>2400.0</v>
+        <v>3500.0</v>
       </c>
       <c r="G16" t="n">
-        <v>480.0</v>
+        <v>500.0</v>
       </c>
       <c r="H16" t="n">
-        <v>2750.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I16" t="n">
-        <v>550.0</v>
+        <v>171.42857142857142</v>
       </c>
       <c r="J16" t="n">
-        <v>28.8</v>
+        <v>70.0</v>
       </c>
       <c r="K16" t="n">
-        <v>31.4</v>
+        <v>43.0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.0</v>
+        <v>41.57142857142857</v>
       </c>
       <c r="M16" t="n">
-        <v>1.5413533834586466</v>
+        <v>1.8571428571428572</v>
       </c>
     </row>
     <row r="17">
@@ -958,40 +970,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17" t="n">
-        <v>240.0</v>
+        <v>480.0</v>
       </c>
       <c r="E17" t="n">
-        <v>48.0</v>
+        <v>68.57142857142857</v>
       </c>
       <c r="F17" t="n">
-        <v>2600.0</v>
+        <v>9275.0</v>
       </c>
       <c r="G17" t="n">
-        <v>520.0</v>
+        <v>1325.0</v>
       </c>
       <c r="H17" t="n">
-        <v>2300.0</v>
+        <v>6350.0</v>
       </c>
       <c r="I17" t="n">
-        <v>460.0</v>
+        <v>907.1428571428571</v>
       </c>
       <c r="J17" t="n">
-        <v>31.2</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="K17" t="n">
-        <v>45.6</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="L17" t="n">
-        <v>32.2</v>
+        <v>32.142857142857146</v>
       </c>
       <c r="M17" t="n">
-        <v>1.92</v>
+        <v>2.3300970873786406</v>
       </c>
     </row>
     <row r="18">
@@ -999,40 +1011,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18" t="n">
-        <v>270.0</v>
+        <v>365.0</v>
       </c>
       <c r="E18" t="n">
-        <v>54.0</v>
+        <v>52.142857142857146</v>
       </c>
       <c r="F18" t="n">
-        <v>2850.0</v>
+        <v>5750.0</v>
       </c>
       <c r="G18" t="n">
-        <v>570.0</v>
+        <v>821.4285714285714</v>
       </c>
       <c r="H18" t="n">
-        <v>2350.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I18" t="n">
-        <v>470.0</v>
+        <v>528.5714285714286</v>
       </c>
       <c r="J18" t="n">
-        <v>26.6</v>
+        <v>56.857142857142854</v>
       </c>
       <c r="K18" t="n">
-        <v>67.6</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="L18" t="n">
-        <v>31.8</v>
+        <v>38.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.2131147540983607</v>
+        <v>1.8341708542713568</v>
       </c>
     </row>
     <row r="19">
@@ -1040,40 +1052,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19" t="n">
-        <v>325.0</v>
+        <v>530.0</v>
       </c>
       <c r="E19" t="n">
-        <v>65.0</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>5875.0</v>
+        <v>10400.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1175.0</v>
+        <v>1733.3333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>3050.0</v>
+        <v>6550.0</v>
       </c>
       <c r="I19" t="n">
-        <v>610.0</v>
+        <v>1091.6666666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>52.0</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K19" t="n">
-        <v>34.4</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="L19" t="n">
-        <v>30.0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="M19" t="n">
-        <v>2.195945945945946</v>
+        <v>3.271604938271605</v>
       </c>
     </row>
     <row r="20">
@@ -1081,40 +1093,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20" t="n">
-        <v>210.0</v>
+        <v>235.0</v>
       </c>
       <c r="E20" t="n">
-        <v>42.0</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F20" t="n">
-        <v>2700.0</v>
+        <v>2650.0</v>
       </c>
       <c r="G20" t="n">
-        <v>540.0</v>
+        <v>441.6666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1700.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I20" t="n">
-        <v>340.0</v>
+        <v>200.0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.6</v>
+        <v>56.833333333333336</v>
       </c>
       <c r="K20" t="n">
-        <v>36.0</v>
+        <v>40.5</v>
       </c>
       <c r="L20" t="n">
-        <v>41.2</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4383561643835616</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1122,40 +1134,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21" t="n">
-        <v>100.0</v>
+        <v>290.0</v>
       </c>
       <c r="E21" t="n">
-        <v>25.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F21" t="n">
-        <v>700.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G21" t="n">
-        <v>175.0</v>
+        <v>500.0</v>
       </c>
       <c r="H21" t="n">
-        <v>300.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I21" t="n">
-        <v>75.0</v>
+        <v>483.3333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>35.5</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K21" t="n">
-        <v>31.25</v>
+        <v>52.833333333333336</v>
       </c>
       <c r="L21" t="n">
-        <v>31.25</v>
+        <v>30.166666666666668</v>
       </c>
       <c r="M21" t="n">
-        <v>1.0638297872340425</v>
+        <v>1.8954248366013071</v>
       </c>
     </row>
     <row r="22">
@@ -1163,40 +1175,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D22" t="n">
-        <v>360.0</v>
+        <v>380.0</v>
       </c>
       <c r="E22" t="n">
-        <v>90.0</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="F22" t="n">
-        <v>6800.0</v>
+        <v>5150.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1700.0</v>
+        <v>858.3333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>5300.0</v>
+        <v>4250.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1325.0</v>
+        <v>708.3333333333334</v>
       </c>
       <c r="J22" t="n">
-        <v>36.75</v>
+        <v>37.5</v>
       </c>
       <c r="K22" t="n">
-        <v>15.25</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="L22" t="n">
-        <v>15.25</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4285714285714284</v>
+        <v>2.878787878787879</v>
       </c>
     </row>
     <row r="23">
@@ -1204,40 +1216,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D23" t="n">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="E23" t="n">
-        <v>62.5</v>
+        <v>40.0</v>
       </c>
       <c r="F23" t="n">
-        <v>3350.0</v>
+        <v>2300.0</v>
       </c>
       <c r="G23" t="n">
-        <v>837.5</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>2450.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I23" t="n">
-        <v>612.5</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>40.75</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="K23" t="n">
-        <v>42.0</v>
+        <v>56.166666666666664</v>
       </c>
       <c r="L23" t="n">
-        <v>33.0</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="M23" t="n">
-        <v>2.7777777777777777</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="24">
@@ -1245,40 +1257,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>170.0</v>
+        <v>235.0</v>
       </c>
       <c r="E24" t="n">
-        <v>42.5</v>
+        <v>47.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1700.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G24" t="n">
-        <v>425.0</v>
+        <v>500.0</v>
       </c>
       <c r="H24" t="n">
-        <v>1200.0</v>
+        <v>600.0</v>
       </c>
       <c r="I24" t="n">
-        <v>300.0</v>
+        <v>120.0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.5</v>
+        <v>58.6</v>
       </c>
       <c r="K24" t="n">
-        <v>51.75</v>
+        <v>40.8</v>
       </c>
       <c r="L24" t="n">
-        <v>38.0</v>
+        <v>43.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.683168316831683</v>
+        <v>2.1171171171171173</v>
       </c>
     </row>
     <row r="25">
@@ -1286,40 +1298,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" t="n">
-        <v>175.0</v>
+        <v>205.0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.333333333333336</v>
+        <v>51.25</v>
       </c>
       <c r="F25" t="n">
-        <v>2100.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G25" t="n">
-        <v>700.0</v>
+        <v>600.0</v>
       </c>
       <c r="H25" t="n">
-        <v>300.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I25" t="n">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.33333333333333</v>
+        <v>49.25</v>
       </c>
       <c r="K25" t="n">
-        <v>46.666666666666664</v>
+        <v>45.25</v>
       </c>
       <c r="L25" t="n">
-        <v>46.666666666666664</v>
+        <v>26.25</v>
       </c>
       <c r="M25" t="n">
-        <v>2.611940298507463</v>
+        <v>2.2282608695652173</v>
       </c>
     </row>
     <row r="26">
@@ -1327,40 +1339,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D26" t="n">
         <v>175.0</v>
       </c>
       <c r="E26" t="n">
-        <v>58.333333333333336</v>
+        <v>43.75</v>
       </c>
       <c r="F26" t="n">
-        <v>2200.0</v>
+        <v>2250.0</v>
       </c>
       <c r="G26" t="n">
-        <v>733.3333333333334</v>
+        <v>562.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1200.0</v>
+        <v>2050.0</v>
       </c>
       <c r="I26" t="n">
-        <v>400.0</v>
+        <v>512.5</v>
       </c>
       <c r="J26" t="n">
-        <v>48.333333333333336</v>
+        <v>37.75</v>
       </c>
       <c r="K26" t="n">
-        <v>49.666666666666664</v>
+        <v>35.5</v>
       </c>
       <c r="L26" t="n">
-        <v>24.333333333333332</v>
+        <v>42.25</v>
       </c>
       <c r="M26" t="n">
-        <v>2.611940298507463</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
         <v>3.0</v>
@@ -1380,28 +1392,28 @@
         <v>55.0</v>
       </c>
       <c r="F27" t="n">
-        <v>2250.0</v>
+        <v>2100.0</v>
       </c>
       <c r="G27" t="n">
-        <v>750.0</v>
+        <v>700.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2050.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I27" t="n">
-        <v>683.3333333333334</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>21.333333333333332</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K27" t="n">
-        <v>47.333333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="L27" t="n">
-        <v>27.333333333333332</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="M27" t="n">
-        <v>1.9879518072289157</v>
+        <v>2.088607594936709</v>
       </c>
     </row>
     <row r="28">
@@ -1409,7 +1421,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C28" t="n">
         <v>3.0</v>
@@ -1450,40 +1462,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C29" t="n">
         <v>2.0</v>
       </c>
       <c r="D29" t="n">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
       <c r="E29" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1000.0</v>
+        <v>200.0</v>
       </c>
       <c r="G29" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H29" t="n">
         <v>500.0</v>
       </c>
-      <c r="H29" t="n">
-        <v>1000.0</v>
-      </c>
       <c r="I29" t="n">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.0</v>
+        <v>15.5</v>
       </c>
       <c r="K29" t="n">
-        <v>38.0</v>
+        <v>40.5</v>
       </c>
       <c r="L29" t="n">
-        <v>30.0</v>
+        <v>31.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.836734693877551</v>
+        <v>1.2280701754385965</v>
       </c>
     </row>
     <row r="30">
@@ -1491,40 +1503,40 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="n">
-        <v>30.0</v>
+        <v>85.0</v>
       </c>
       <c r="E30" t="n">
-        <v>30.0</v>
+        <v>42.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>550.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>275.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="J30" t="n">
-        <v>68.0</v>
+        <v>19.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0</v>
+        <v>29.5</v>
       </c>
       <c r="L30" t="n">
-        <v>68.0</v>
+        <v>29.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.2</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1544,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1544,10 +1556,10 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" t="n">
         <v>200.0</v>
@@ -1556,16 +1568,16 @@
         <v>200.0</v>
       </c>
       <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n">
         <v>31.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>49.0</v>
       </c>
       <c r="L31" t="n">
         <v>31.0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.0344827586206897</v>
+        <v>1.3636363636363635</v>
       </c>
     </row>
     <row r="32">
@@ -1573,63 +1585,63 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="E32" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="F32" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>800.0</v>
       </c>
       <c r="J32" t="n">
-        <v>66.0</v>
+        <v>57.0</v>
       </c>
       <c r="K32" t="n">
-        <v>71.0</v>
+        <v>47.0</v>
       </c>
       <c r="L32" t="n">
-        <v>66.0</v>
+        <v>47.0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.7391304347826086</v>
+        <v>3.5294117647058822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" t="s">
-        <v>76</v>
+      <c r="B33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
       </c>
       <c r="D33" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="E33" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1641,13 +1653,13 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="L33" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6896551724137931</v>
+        <v>2.9411764705882355</v>
       </c>
     </row>
     <row r="34">
@@ -1655,40 +1667,40 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
       </c>
       <c r="D34" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="E34" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="F34" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.0</v>
+        <v>68.0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="L34" t="n">
-        <v>8.0</v>
+        <v>68.0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.272727272727273</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35">
@@ -1696,40 +1708,122 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" t="n">
         <v>1.0</v>
       </c>
       <c r="D35" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="E35" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="F35" t="n">
-        <v>550.0</v>
+        <v>400.0</v>
       </c>
       <c r="G35" t="n">
-        <v>550.0</v>
+        <v>400.0</v>
       </c>
       <c r="H35" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.0</v>
+        <v>66.0</v>
       </c>
       <c r="K35" t="n">
-        <v>28.0</v>
+        <v>71.0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.0</v>
+        <v>66.0</v>
       </c>
       <c r="M35" t="n">
-        <v>2.7083333333333335</v>
+        <v>1.7391304347826086</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2.272727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/SERIEA_refereestats.xlsx
+++ b/SERIEA_refereestats.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Referee</t>
   </si>
@@ -155,112 +155,109 @@
     <t>35</t>
   </si>
   <si>
-    <t>36</t>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
+  </si>
+  <si>
+    <t>Davide Massa</t>
+  </si>
+  <si>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
+  </si>
+  <si>
+    <t>Andrea Colombo</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
+    <t>Rosario Abisso</t>
+  </si>
+  <si>
+    <t>Marco Piccinini</t>
+  </si>
+  <si>
+    <t>Ermanno Feliciani</t>
+  </si>
+  <si>
+    <t>Matteo Marchetti</t>
+  </si>
+  <si>
+    <t>Federico La Penna</t>
   </si>
   <si>
     <t>Marco Guida</t>
   </si>
   <si>
-    <t>Marco Di Bello</t>
-  </si>
-  <si>
-    <t>Antonio Rapuano</t>
-  </si>
-  <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>Andrea Colombo</t>
-  </si>
-  <si>
-    <t>Ermanno Feliciani</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>Gianluca Manganiello</t>
-  </si>
-  <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>Davide Massa</t>
-  </si>
-  <si>
     <t>Juan Luca Sacchi</t>
   </si>
   <si>
-    <t>Daniele Chiffi</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
-    <t>Federico La Penna</t>
+    <t>Francesco Fourneau</t>
   </si>
   <si>
     <t>Giovanni Ayroldi</t>
   </si>
   <si>
-    <t>Rosario Abisso</t>
-  </si>
-  <si>
-    <t>Matteo Marchetti</t>
-  </si>
-  <si>
     <t>Matteo Marcenaro</t>
   </si>
   <si>
-    <t>Marco Piccinini</t>
-  </si>
-  <si>
     <t>Antonio Giua</t>
   </si>
   <si>
     <t>Paride Tremolada</t>
   </si>
   <si>
-    <t>Francesco Fourneau</t>
-  </si>
-  <si>
     <t>Federico Dionisi</t>
   </si>
   <si>
+    <t>Giuseppe Collu</t>
+  </si>
+  <si>
     <t>Gianluca Aureliano</t>
   </si>
   <si>
+    <t>Fabio Maresca</t>
+  </si>
+  <si>
+    <t>Kevin Bonacina</t>
+  </si>
+  <si>
+    <t>Francesco Cosso</t>
+  </si>
+  <si>
     <t>Maria Sole Ferrieri Caputi</t>
   </si>
   <si>
+    <t>Luca Massimi</t>
+  </si>
+  <si>
     <t>Davide Di Marco</t>
   </si>
   <si>
-    <t>Francesco Cosso</t>
-  </si>
-  <si>
-    <t>Fabio Maresca</t>
-  </si>
-  <si>
     <t>Alessandro Prontera</t>
-  </si>
-  <si>
-    <t>Giuseppe Collu</t>
-  </si>
-  <si>
-    <t>Luca Massimi</t>
-  </si>
-  <si>
-    <t>Kevin Bonacina</t>
   </si>
 </sst>
 </file>
@@ -355,40 +352,40 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="D2" t="n">
-        <v>360.0</v>
+        <v>570.0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.0</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="F2" t="n">
-        <v>4025.0</v>
+        <v>4900.0</v>
       </c>
       <c r="G2" t="n">
-        <v>503.125</v>
+        <v>350.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2600.0</v>
+        <v>3250.0</v>
       </c>
       <c r="I2" t="n">
-        <v>325.0</v>
+        <v>232.14285714285714</v>
       </c>
       <c r="J2" t="n">
-        <v>35.5</v>
+        <v>40.642857142857146</v>
       </c>
       <c r="K2" t="n">
-        <v>36.875</v>
+        <v>46.57142857142857</v>
       </c>
       <c r="L2" t="n">
-        <v>35.0</v>
+        <v>40.42857142857143</v>
       </c>
       <c r="M2" t="n">
-        <v>1.9672131147540983</v>
+        <v>1.5616438356164384</v>
       </c>
     </row>
     <row r="3">
@@ -396,40 +393,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" t="n">
-        <v>270.0</v>
+        <v>505.0</v>
       </c>
       <c r="E3" t="n">
-        <v>33.75</v>
+        <v>38.84615384615385</v>
       </c>
       <c r="F3" t="n">
-        <v>2450.0</v>
+        <v>5300.0</v>
       </c>
       <c r="G3" t="n">
-        <v>306.25</v>
+        <v>407.6923076923077</v>
       </c>
       <c r="H3" t="n">
-        <v>1800.0</v>
+        <v>3650.0</v>
       </c>
       <c r="I3" t="n">
-        <v>225.0</v>
+        <v>280.7692307692308</v>
       </c>
       <c r="J3" t="n">
-        <v>57.875</v>
+        <v>25.0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5</v>
+        <v>47.15384615384615</v>
       </c>
       <c r="L3" t="n">
-        <v>49.75</v>
+        <v>37.23076923076923</v>
       </c>
       <c r="M3" t="n">
-        <v>1.3043478260869565</v>
+        <v>1.558641975308642</v>
       </c>
     </row>
     <row r="4">
@@ -437,40 +434,40 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>545.0</v>
+        <v>205.0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.125</v>
+        <v>17.083333333333332</v>
       </c>
       <c r="F4" t="n">
-        <v>8200.0</v>
+        <v>600.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1025.0</v>
+        <v>50.0</v>
       </c>
       <c r="H4" t="n">
-        <v>5200.0</v>
+        <v>800.0</v>
       </c>
       <c r="I4" t="n">
-        <v>650.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>41.5</v>
+        <v>44.25</v>
       </c>
       <c r="K4" t="n">
-        <v>44.125</v>
+        <v>32.75</v>
       </c>
       <c r="L4" t="n">
-        <v>33.25</v>
+        <v>43.583333333333336</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4439461883408073</v>
+        <v>0.7269503546099291</v>
       </c>
     </row>
     <row r="5">
@@ -478,40 +475,40 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>320.0</v>
+        <v>465.0</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0</v>
+        <v>38.75</v>
       </c>
       <c r="F5" t="n">
-        <v>2950.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G5" t="n">
-        <v>368.75</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>2350.0</v>
+        <v>3300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>293.75</v>
+        <v>275.0</v>
       </c>
       <c r="J5" t="n">
-        <v>31.5</v>
+        <v>43.25</v>
       </c>
       <c r="K5" t="n">
-        <v>56.75</v>
+        <v>49.583333333333336</v>
       </c>
       <c r="L5" t="n">
-        <v>44.875</v>
+        <v>41.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6</v>
+        <v>1.480891719745223</v>
       </c>
     </row>
     <row r="6">
@@ -519,40 +516,40 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
-        <v>345.0</v>
+        <v>410.0</v>
       </c>
       <c r="E6" t="n">
-        <v>43.125</v>
+        <v>34.166666666666664</v>
       </c>
       <c r="F6" t="n">
-        <v>4050.0</v>
+        <v>3150.0</v>
       </c>
       <c r="G6" t="n">
-        <v>506.25</v>
+        <v>262.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3850.0</v>
+        <v>3250.0</v>
       </c>
       <c r="I6" t="n">
-        <v>481.25</v>
+        <v>270.8333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>36.375</v>
+        <v>40.916666666666664</v>
       </c>
       <c r="K6" t="n">
-        <v>42.0</v>
+        <v>24.25</v>
       </c>
       <c r="L6" t="n">
-        <v>36.375</v>
+        <v>27.916666666666668</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7164179104477613</v>
+        <v>1.5185185185185186</v>
       </c>
     </row>
     <row r="7">
@@ -560,40 +557,40 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D7" t="n">
-        <v>380.0</v>
+        <v>525.0</v>
       </c>
       <c r="E7" t="n">
-        <v>47.5</v>
+        <v>43.75</v>
       </c>
       <c r="F7" t="n">
-        <v>3200.0</v>
+        <v>5950.0</v>
       </c>
       <c r="G7" t="n">
-        <v>400.0</v>
+        <v>495.8333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>2750.0</v>
+        <v>5050.0</v>
       </c>
       <c r="I7" t="n">
-        <v>343.75</v>
+        <v>420.8333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>38.875</v>
+        <v>31.75</v>
       </c>
       <c r="K7" t="n">
-        <v>43.125</v>
+        <v>40.583333333333336</v>
       </c>
       <c r="L7" t="n">
-        <v>37.125</v>
+        <v>33.833333333333336</v>
       </c>
       <c r="M7" t="n">
-        <v>1.8446601941747574</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -601,40 +598,40 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D8" t="n">
-        <v>280.0</v>
+        <v>570.0</v>
       </c>
       <c r="E8" t="n">
-        <v>40.0</v>
+        <v>47.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2600.0</v>
+        <v>6350.0</v>
       </c>
       <c r="G8" t="n">
-        <v>371.42857142857144</v>
+        <v>529.1666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>3000.0</v>
+        <v>5450.0</v>
       </c>
       <c r="I8" t="n">
-        <v>428.57142857142856</v>
+        <v>454.1666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>32.714285714285715</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="K8" t="n">
-        <v>50.57142857142857</v>
+        <v>39.833333333333336</v>
       </c>
       <c r="L8" t="n">
-        <v>30.285714285714285</v>
+        <v>33.083333333333336</v>
       </c>
       <c r="M8" t="n">
-        <v>1.6470588235294117</v>
+        <v>1.952054794520548</v>
       </c>
     </row>
     <row r="9">
@@ -642,40 +639,40 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" t="n">
-        <v>180.0</v>
+        <v>375.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.714285714285715</v>
+        <v>34.09090909090909</v>
       </c>
       <c r="F9" t="n">
-        <v>1200.0</v>
+        <v>4350.0</v>
       </c>
       <c r="G9" t="n">
-        <v>171.42857142857142</v>
+        <v>395.45454545454544</v>
       </c>
       <c r="H9" t="n">
-        <v>800.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>114.28571428571429</v>
+        <v>545.4545454545455</v>
       </c>
       <c r="J9" t="n">
-        <v>33.57142857142857</v>
+        <v>33.36363636363637</v>
       </c>
       <c r="K9" t="n">
-        <v>31.285714285714285</v>
+        <v>35.27272727272727</v>
       </c>
       <c r="L9" t="n">
-        <v>24.428571428571427</v>
+        <v>29.636363636363637</v>
       </c>
       <c r="M9" t="n">
-        <v>1.0778443113772456</v>
+        <v>1.6304347826086956</v>
       </c>
     </row>
     <row r="10">
@@ -683,40 +680,40 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.0</v>
+        <v>445.0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.285714285714285</v>
+        <v>40.45454545454545</v>
       </c>
       <c r="F10" t="n">
-        <v>500.0</v>
+        <v>4400.0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.42857142857143</v>
+        <v>400.0</v>
       </c>
       <c r="H10" t="n">
-        <v>500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.42857142857143</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="J10" t="n">
-        <v>42.857142857142854</v>
+        <v>61.36363636363637</v>
       </c>
       <c r="K10" t="n">
-        <v>41.0</v>
+        <v>39.81818181818182</v>
       </c>
       <c r="L10" t="n">
-        <v>38.857142857142854</v>
+        <v>33.09090909090909</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8385093167701864</v>
+        <v>1.718146718146718</v>
       </c>
     </row>
     <row r="11">
@@ -724,40 +721,40 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0</v>
+        <v>755.0</v>
       </c>
       <c r="E11" t="n">
-        <v>40.0</v>
+        <v>68.63636363636364</v>
       </c>
       <c r="F11" t="n">
-        <v>2650.0</v>
+        <v>14700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>378.57142857142856</v>
+        <v>1336.3636363636363</v>
       </c>
       <c r="H11" t="n">
-        <v>1700.0</v>
+        <v>8900.0</v>
       </c>
       <c r="I11" t="n">
-        <v>242.85714285714286</v>
+        <v>809.0909090909091</v>
       </c>
       <c r="J11" t="n">
-        <v>43.857142857142854</v>
+        <v>46.18181818181818</v>
       </c>
       <c r="K11" t="n">
-        <v>50.42857142857143</v>
+        <v>30.363636363636363</v>
       </c>
       <c r="L11" t="n">
-        <v>47.285714285714285</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="M11" t="n">
-        <v>1.5384615384615385</v>
+        <v>2.4044585987261144</v>
       </c>
     </row>
     <row r="12">
@@ -765,40 +762,40 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>255.0</v>
+        <v>400.0</v>
       </c>
       <c r="E12" t="n">
-        <v>36.42857142857143</v>
+        <v>40.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2250.0</v>
+        <v>4000.0</v>
       </c>
       <c r="G12" t="n">
-        <v>321.42857142857144</v>
+        <v>400.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2350.0</v>
+        <v>4100.0</v>
       </c>
       <c r="I12" t="n">
-        <v>335.7142857142857</v>
+        <v>410.0</v>
       </c>
       <c r="J12" t="n">
-        <v>48.714285714285715</v>
+        <v>29.7</v>
       </c>
       <c r="K12" t="n">
-        <v>28.285714285714285</v>
+        <v>45.2</v>
       </c>
       <c r="L12" t="n">
-        <v>34.57142857142857</v>
+        <v>30.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.8888888888888888</v>
+        <v>1.6597510373443984</v>
       </c>
     </row>
     <row r="13">
@@ -806,40 +803,40 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>325.0</v>
+        <v>330.0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.42857142857143</v>
+        <v>33.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4050.0</v>
+        <v>3350.0</v>
       </c>
       <c r="G13" t="n">
-        <v>578.5714285714286</v>
+        <v>335.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3650.0</v>
+        <v>2200.0</v>
       </c>
       <c r="I13" t="n">
-        <v>521.4285714285714</v>
+        <v>220.0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.857142857142858</v>
+        <v>50.3</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57142857142857</v>
+        <v>40.6</v>
       </c>
       <c r="L13" t="n">
-        <v>30.0</v>
+        <v>49.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.8571428571428572</v>
+        <v>1.2692307692307692</v>
       </c>
     </row>
     <row r="14">
@@ -847,40 +844,40 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>265.0</v>
+        <v>660.0</v>
       </c>
       <c r="E14" t="n">
-        <v>37.857142857142854</v>
+        <v>66.0</v>
       </c>
       <c r="F14" t="n">
-        <v>2600.0</v>
+        <v>9250.0</v>
       </c>
       <c r="G14" t="n">
-        <v>371.42857142857144</v>
+        <v>925.0</v>
       </c>
       <c r="H14" t="n">
-        <v>3150.0</v>
+        <v>5500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>450.0</v>
+        <v>550.0</v>
       </c>
       <c r="J14" t="n">
-        <v>26.142857142857142</v>
+        <v>45.0</v>
       </c>
       <c r="K14" t="n">
-        <v>35.285714285714285</v>
+        <v>49.6</v>
       </c>
       <c r="L14" t="n">
-        <v>36.142857142857146</v>
+        <v>35.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.440217391304348</v>
+        <v>2.408759124087591</v>
       </c>
     </row>
     <row r="15">
@@ -888,40 +885,40 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>325.0</v>
+        <v>425.0</v>
       </c>
       <c r="E15" t="n">
-        <v>46.42857142857143</v>
+        <v>42.5</v>
       </c>
       <c r="F15" t="n">
-        <v>4350.0</v>
+        <v>4550.0</v>
       </c>
       <c r="G15" t="n">
-        <v>621.4285714285714</v>
+        <v>455.0</v>
       </c>
       <c r="H15" t="n">
-        <v>4100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I15" t="n">
-        <v>585.7142857142857</v>
+        <v>300.0</v>
       </c>
       <c r="J15" t="n">
-        <v>30.428571428571427</v>
+        <v>46.9</v>
       </c>
       <c r="K15" t="n">
-        <v>31.285714285714285</v>
+        <v>46.6</v>
       </c>
       <c r="L15" t="n">
-        <v>22.428571428571427</v>
+        <v>33.1</v>
       </c>
       <c r="M15" t="n">
-        <v>2.2569444444444446</v>
+        <v>1.7206477732793521</v>
       </c>
     </row>
     <row r="16">
@@ -929,40 +926,40 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D16" t="n">
-        <v>325.0</v>
+        <v>390.0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.42857142857143</v>
+        <v>39.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3500.0</v>
+        <v>3300.0</v>
       </c>
       <c r="G16" t="n">
-        <v>500.0</v>
+        <v>330.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1200.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I16" t="n">
-        <v>171.42857142857142</v>
+        <v>250.0</v>
       </c>
       <c r="J16" t="n">
-        <v>70.0</v>
+        <v>22.3</v>
       </c>
       <c r="K16" t="n">
-        <v>43.0</v>
+        <v>53.1</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57142857142857</v>
+        <v>39.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.8571428571428572</v>
+        <v>1.5294117647058822</v>
       </c>
     </row>
     <row r="17">
@@ -970,40 +967,40 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D17" t="n">
-        <v>480.0</v>
+        <v>220.0</v>
       </c>
       <c r="E17" t="n">
-        <v>68.57142857142857</v>
+        <v>24.444444444444443</v>
       </c>
       <c r="F17" t="n">
-        <v>9275.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1325.0</v>
+        <v>177.77777777777777</v>
       </c>
       <c r="H17" t="n">
-        <v>6350.0</v>
+        <v>800.0</v>
       </c>
       <c r="I17" t="n">
-        <v>907.1428571428571</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="J17" t="n">
-        <v>48.57142857142857</v>
+        <v>33.888888888888886</v>
       </c>
       <c r="K17" t="n">
-        <v>36.142857142857146</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="L17" t="n">
-        <v>32.142857142857146</v>
+        <v>26.77777777777778</v>
       </c>
       <c r="M17" t="n">
-        <v>2.3300970873786406</v>
+        <v>1.0576923076923077</v>
       </c>
     </row>
     <row r="18">
@@ -1011,40 +1008,40 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D18" t="n">
-        <v>365.0</v>
+        <v>380.0</v>
       </c>
       <c r="E18" t="n">
-        <v>52.142857142857146</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="F18" t="n">
-        <v>5750.0</v>
+        <v>3900.0</v>
       </c>
       <c r="G18" t="n">
-        <v>821.4285714285714</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>3700.0</v>
+        <v>2900.0</v>
       </c>
       <c r="I18" t="n">
-        <v>528.5714285714286</v>
+        <v>322.22222222222223</v>
       </c>
       <c r="J18" t="n">
-        <v>56.857142857142854</v>
+        <v>45.44444444444444</v>
       </c>
       <c r="K18" t="n">
-        <v>34.285714285714285</v>
+        <v>51.0</v>
       </c>
       <c r="L18" t="n">
-        <v>38.0</v>
+        <v>42.888888888888886</v>
       </c>
       <c r="M18" t="n">
-        <v>1.8341708542713568</v>
+        <v>1.6814159292035398</v>
       </c>
     </row>
     <row r="19">
@@ -1052,40 +1049,40 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="D19" t="n">
-        <v>530.0</v>
+        <v>435.0</v>
       </c>
       <c r="E19" t="n">
-        <v>88.33333333333333</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F19" t="n">
-        <v>10400.0</v>
+        <v>6950.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1733.3333333333333</v>
+        <v>772.2222222222222</v>
       </c>
       <c r="H19" t="n">
-        <v>6550.0</v>
+        <v>5100.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1091.6666666666667</v>
+        <v>566.6666666666666</v>
       </c>
       <c r="J19" t="n">
-        <v>44.666666666666664</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="K19" t="n">
-        <v>23.333333333333332</v>
+        <v>31.0</v>
       </c>
       <c r="L19" t="n">
-        <v>23.333333333333332</v>
+        <v>37.55555555555556</v>
       </c>
       <c r="M19" t="n">
-        <v>3.271604938271605</v>
+        <v>1.623134328358209</v>
       </c>
     </row>
     <row r="20">
@@ -1093,40 +1090,40 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" t="n">
-        <v>235.0</v>
+        <v>360.0</v>
       </c>
       <c r="E20" t="n">
-        <v>39.166666666666664</v>
+        <v>45.0</v>
       </c>
       <c r="F20" t="n">
-        <v>2650.0</v>
+        <v>4025.0</v>
       </c>
       <c r="G20" t="n">
-        <v>441.6666666666667</v>
+        <v>503.125</v>
       </c>
       <c r="H20" t="n">
-        <v>1200.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I20" t="n">
-        <v>200.0</v>
+        <v>325.0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.833333333333336</v>
+        <v>35.5</v>
       </c>
       <c r="K20" t="n">
-        <v>40.5</v>
+        <v>36.875</v>
       </c>
       <c r="L20" t="n">
-        <v>35.333333333333336</v>
+        <v>35.0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.9672131147540983</v>
       </c>
     </row>
     <row r="21">
@@ -1134,40 +1131,40 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D21" t="n">
-        <v>290.0</v>
+        <v>330.0</v>
       </c>
       <c r="E21" t="n">
-        <v>48.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="F21" t="n">
-        <v>3000.0</v>
+        <v>3650.0</v>
       </c>
       <c r="G21" t="n">
-        <v>500.0</v>
+        <v>456.25</v>
       </c>
       <c r="H21" t="n">
-        <v>2900.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I21" t="n">
-        <v>483.3333333333333</v>
+        <v>462.5</v>
       </c>
       <c r="J21" t="n">
-        <v>29.333333333333332</v>
+        <v>29.375</v>
       </c>
       <c r="K21" t="n">
-        <v>52.833333333333336</v>
+        <v>36.5</v>
       </c>
       <c r="L21" t="n">
-        <v>30.166666666666668</v>
+        <v>37.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.8954248366013071</v>
+        <v>1.6097560975609757</v>
       </c>
     </row>
     <row r="22">
@@ -1175,40 +1172,40 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D22" t="n">
-        <v>380.0</v>
+        <v>275.0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.333333333333336</v>
+        <v>34.375</v>
       </c>
       <c r="F22" t="n">
-        <v>5150.0</v>
+        <v>3050.0</v>
       </c>
       <c r="G22" t="n">
-        <v>858.3333333333334</v>
+        <v>381.25</v>
       </c>
       <c r="H22" t="n">
-        <v>4250.0</v>
+        <v>4050.0</v>
       </c>
       <c r="I22" t="n">
-        <v>708.3333333333334</v>
+        <v>506.25</v>
       </c>
       <c r="J22" t="n">
+        <v>33.375</v>
+      </c>
+      <c r="K22" t="n">
+        <v>35.875</v>
+      </c>
+      <c r="L22" t="n">
         <v>37.5</v>
       </c>
-      <c r="K22" t="n">
-        <v>35.833333333333336</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24.333333333333332</v>
-      </c>
       <c r="M22" t="n">
-        <v>2.878787878787879</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23">
@@ -1216,40 +1213,40 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="n">
         <v>6.0</v>
       </c>
       <c r="D23" t="n">
-        <v>240.0</v>
+        <v>530.0</v>
       </c>
       <c r="E23" t="n">
-        <v>40.0</v>
+        <v>88.33333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>2300.0</v>
+        <v>10400.0</v>
       </c>
       <c r="G23" t="n">
-        <v>383.3333333333333</v>
+        <v>1733.3333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1600.0</v>
+        <v>6550.0</v>
       </c>
       <c r="I23" t="n">
-        <v>266.6666666666667</v>
+        <v>1091.6666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>30.333333333333332</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K23" t="n">
-        <v>56.166666666666664</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="L23" t="n">
-        <v>41.666666666666664</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="M23" t="n">
-        <v>1.5384615384615385</v>
+        <v>3.271604938271605</v>
       </c>
     </row>
     <row r="24">
@@ -1257,40 +1254,40 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D24" t="n">
-        <v>235.0</v>
+        <v>380.0</v>
       </c>
       <c r="E24" t="n">
-        <v>47.0</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="F24" t="n">
-        <v>2500.0</v>
+        <v>5150.0</v>
       </c>
       <c r="G24" t="n">
-        <v>500.0</v>
+        <v>858.3333333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>600.0</v>
+        <v>4250.0</v>
       </c>
       <c r="I24" t="n">
-        <v>120.0</v>
+        <v>708.3333333333334</v>
       </c>
       <c r="J24" t="n">
-        <v>58.6</v>
+        <v>37.5</v>
       </c>
       <c r="K24" t="n">
-        <v>40.8</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="L24" t="n">
-        <v>43.2</v>
+        <v>24.333333333333332</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1171171171171173</v>
+        <v>2.878787878787879</v>
       </c>
     </row>
     <row r="25">
@@ -1298,40 +1295,40 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>205.0</v>
+        <v>235.0</v>
       </c>
       <c r="E25" t="n">
-        <v>51.25</v>
+        <v>47.0</v>
       </c>
       <c r="F25" t="n">
-        <v>2400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G25" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="H25" t="n">
         <v>600.0</v>
       </c>
-      <c r="H25" t="n">
-        <v>1400.0</v>
-      </c>
       <c r="I25" t="n">
-        <v>350.0</v>
+        <v>120.0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.25</v>
+        <v>58.6</v>
       </c>
       <c r="K25" t="n">
-        <v>45.25</v>
+        <v>40.8</v>
       </c>
       <c r="L25" t="n">
-        <v>26.25</v>
+        <v>43.2</v>
       </c>
       <c r="M25" t="n">
-        <v>2.2282608695652173</v>
+        <v>2.1171171171171173</v>
       </c>
     </row>
     <row r="26">
@@ -1339,40 +1336,40 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>175.0</v>
+        <v>300.0</v>
       </c>
       <c r="E26" t="n">
-        <v>43.75</v>
+        <v>60.0</v>
       </c>
       <c r="F26" t="n">
-        <v>2250.0</v>
+        <v>4350.0</v>
       </c>
       <c r="G26" t="n">
-        <v>562.5</v>
+        <v>870.0</v>
       </c>
       <c r="H26" t="n">
-        <v>2050.0</v>
+        <v>1900.0</v>
       </c>
       <c r="I26" t="n">
-        <v>512.5</v>
+        <v>380.0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.75</v>
+        <v>49.6</v>
       </c>
       <c r="K26" t="n">
-        <v>35.5</v>
+        <v>41.8</v>
       </c>
       <c r="L26" t="n">
-        <v>42.25</v>
+        <v>26.6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.5625</v>
+        <v>2.479338842975207</v>
       </c>
     </row>
     <row r="27">
@@ -1380,40 +1377,40 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27" t="n">
-        <v>165.0</v>
+        <v>215.0</v>
       </c>
       <c r="E27" t="n">
-        <v>55.0</v>
+        <v>53.75</v>
       </c>
       <c r="F27" t="n">
-        <v>2100.0</v>
+        <v>2500.0</v>
       </c>
       <c r="G27" t="n">
-        <v>700.0</v>
+        <v>625.0</v>
       </c>
       <c r="H27" t="n">
         <v>1400.0</v>
       </c>
       <c r="I27" t="n">
-        <v>466.6666666666667</v>
+        <v>350.0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.666666666666668</v>
+        <v>37.5</v>
       </c>
       <c r="K27" t="n">
-        <v>36.666666666666664</v>
+        <v>49.25</v>
       </c>
       <c r="L27" t="n">
-        <v>29.666666666666668</v>
+        <v>37.5</v>
       </c>
       <c r="M27" t="n">
-        <v>2.088607594936709</v>
+        <v>1.8859649122807018</v>
       </c>
     </row>
     <row r="28">
@@ -1421,40 +1418,40 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D28" t="n">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.666666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1650.0</v>
+        <v>1300.0</v>
       </c>
       <c r="G28" t="n">
-        <v>550.0</v>
+        <v>325.0</v>
       </c>
       <c r="H28" t="n">
-        <v>1750.0</v>
+        <v>600.0</v>
       </c>
       <c r="I28" t="n">
-        <v>583.3333333333334</v>
+        <v>150.0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="K28" t="n">
-        <v>48.666666666666664</v>
+        <v>68.25</v>
       </c>
       <c r="L28" t="n">
-        <v>48.666666666666664</v>
+        <v>50.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.838235294117647</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="29">
@@ -1462,40 +1459,40 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D29" t="n">
-        <v>70.0</v>
+        <v>135.0</v>
       </c>
       <c r="E29" t="n">
-        <v>35.0</v>
+        <v>33.75</v>
       </c>
       <c r="F29" t="n">
-        <v>200.0</v>
+        <v>1650.0</v>
       </c>
       <c r="G29" t="n">
-        <v>100.0</v>
+        <v>412.5</v>
       </c>
       <c r="H29" t="n">
-        <v>500.0</v>
+        <v>1750.0</v>
       </c>
       <c r="I29" t="n">
-        <v>250.0</v>
+        <v>437.5</v>
       </c>
       <c r="J29" t="n">
-        <v>15.5</v>
+        <v>36.75</v>
       </c>
       <c r="K29" t="n">
-        <v>40.5</v>
+        <v>47.75</v>
       </c>
       <c r="L29" t="n">
-        <v>31.5</v>
+        <v>47.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.2280701754385965</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -1503,40 +1500,40 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D30" t="n">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E30" t="n">
-        <v>42.5</v>
+        <v>30.0</v>
       </c>
       <c r="F30" t="n">
-        <v>550.0</v>
+        <v>900.0</v>
       </c>
       <c r="G30" t="n">
-        <v>275.0</v>
+        <v>300.0</v>
       </c>
       <c r="H30" t="n">
-        <v>300.0</v>
+        <v>800.0</v>
       </c>
       <c r="I30" t="n">
-        <v>150.0</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>19.0</v>
+        <v>50.333333333333336</v>
       </c>
       <c r="K30" t="n">
-        <v>29.5</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="L30" t="n">
-        <v>29.5</v>
+        <v>66.33333333333333</v>
       </c>
       <c r="M30" t="n">
-        <v>1.8888888888888888</v>
+        <v>1.7307692307692308</v>
       </c>
     </row>
     <row r="31">
@@ -1544,40 +1541,40 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
       <c r="E31" t="n">
-        <v>30.0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="H31" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="I31" t="n">
-        <v>200.0</v>
+        <v>300.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="K31" t="n">
-        <v>31.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="L31" t="n">
-        <v>31.0</v>
+        <v>30.333333333333332</v>
       </c>
       <c r="M31" t="n">
-        <v>1.3636363636363635</v>
+        <v>1.4492753623188406</v>
       </c>
     </row>
     <row r="32">
@@ -1585,81 +1582,81 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="n">
-        <v>60.0</v>
+        <v>140.0</v>
       </c>
       <c r="E32" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="F32" t="n">
-        <v>800.0</v>
+        <v>2925.0</v>
       </c>
       <c r="G32" t="n">
-        <v>800.0</v>
+        <v>1462.5</v>
       </c>
       <c r="H32" t="n">
-        <v>800.0</v>
+        <v>200.0</v>
       </c>
       <c r="I32" t="n">
-        <v>800.0</v>
+        <v>100.0</v>
       </c>
       <c r="J32" t="n">
-        <v>57.0</v>
+        <v>25.5</v>
       </c>
       <c r="K32" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="L32" t="n">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5294117647058822</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
+      <c r="B33" t="s">
+        <v>78</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="E33" t="n">
-        <v>50.0</v>
+        <v>35.0</v>
       </c>
       <c r="F33" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="G33" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0</v>
+        <v>40.5</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>31.5</v>
       </c>
       <c r="M33" t="n">
-        <v>2.9411764705882355</v>
+        <v>1.2280701754385965</v>
       </c>
     </row>
     <row r="34">
@@ -1670,37 +1667,37 @@
         <v>79</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D34" t="n">
-        <v>30.0</v>
+        <v>115.0</v>
       </c>
       <c r="E34" t="n">
-        <v>30.0</v>
+        <v>57.5</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>975.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0</v>
+        <v>1950.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0</v>
+        <v>975.0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.0</v>
+        <v>14.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>17.5</v>
       </c>
       <c r="L34" t="n">
-        <v>68.0</v>
+        <v>17.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.2</v>
+        <v>1.8253968253968254</v>
       </c>
     </row>
     <row r="35">
@@ -1711,37 +1708,37 @@
         <v>80</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" t="n">
-        <v>40.0</v>
+        <v>85.0</v>
       </c>
       <c r="E35" t="n">
-        <v>40.0</v>
+        <v>42.5</v>
       </c>
       <c r="F35" t="n">
-        <v>400.0</v>
+        <v>550.0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.0</v>
+        <v>275.0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.0</v>
+        <v>19.0</v>
       </c>
       <c r="K35" t="n">
-        <v>71.0</v>
+        <v>29.5</v>
       </c>
       <c r="L35" t="n">
-        <v>66.0</v>
+        <v>29.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.7391304347826086</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="36">
@@ -1755,10 +1752,10 @@
         <v>1.0</v>
       </c>
       <c r="D36" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E36" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -1773,57 +1770,16 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0</v>
       </c>
-      <c r="K36" t="n">
-        <v>26.0</v>
-      </c>
       <c r="L36" t="n">
-        <v>26.0</v>
+        <v>68.0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6896551724137931</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2.272727272727273</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
